--- a/digital-objects/omap/8-placenta-full-term-imc/v1.2/raw/omap-8-placenta-full-term-imc.xlsx
+++ b/digital-objects/omap/8-placenta-full-term-imc/v1.2/raw/omap-8-placenta-full-term-imc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/8-placenta-full-term-imc/v1.1/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/8-placenta-full-term-imc/v1.2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49C883-9013-1B43-8FEC-749D4351150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71CFE3-7621-5940-B4DE-D84E71300CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="5920" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="860" windowWidth="34200" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-8-Placenta-full-term" sheetId="1" r:id="rId1"/>
@@ -1569,9 +1569,6 @@
     <t>target_symbol</t>
   </si>
   <si>
-    <t>v1.1</t>
-  </si>
-  <si>
     <t>author_orcids</t>
   </si>
   <si>
@@ -1579,6 +1576,9 @@
   </si>
   <si>
     <t>https://doi.org/10.48539/HBM826.WXNC.743</t>
+  </si>
+  <si>
+    <t>v1.2</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1946,7 @@
   <dimension ref="A1:AR903"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2171,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6">
-        <v>45458</v>
+        <v>45823</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2203,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2271,7 +2271,7 @@
         <v>24</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>25</v>
@@ -2295,7 +2295,7 @@
         <v>31</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W11" s="13" t="s">
         <v>32</v>

--- a/digital-objects/omap/8-placenta-full-term-imc/v1.2/raw/omap-8-placenta-full-term-imc.xlsx
+++ b/digital-objects/omap/8-placenta-full-term-imc/v1.2/raw/omap-8-placenta-full-term-imc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/8-placenta-full-term-imc/v1.2/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\HRA\digital-objects\omap\8-placenta-full-term-imc\v1.2\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71CFE3-7621-5940-B4DE-D84E71300CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9C915-BAA2-41BC-B7F3-C7200704ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="860" windowWidth="34200" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-8-Placenta-full-term" sheetId="1" r:id="rId1"/>
@@ -1575,10 +1575,10 @@
     <t>dilution_factor</t>
   </si>
   <si>
-    <t>https://doi.org/10.48539/HBM826.WXNC.743</t>
-  </si>
-  <si>
     <t>v1.2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48539/HBM492.PWHV.975</t>
   </si>
 </sst>
 </file>
@@ -1608,13 +1608,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1672,6 +1665,13 @@
       <color theme="1"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1690,8 +1690,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1703,30 +1704,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1946,22 +1948,22 @@
   <dimension ref="A1:AR903"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="29.1640625" customWidth="1"/>
-    <col min="24" max="24" width="131.1640625" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="29.109375" customWidth="1"/>
+    <col min="24" max="24" width="131.109375" customWidth="1"/>
+    <col min="26" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,13 +1972,13 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="J2" s="2"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2010,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2040,7 +2042,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2074,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2106,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2134,12 +2136,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>295</v>
+      <c r="B8" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2166,11 +2168,11 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45823</v>
       </c>
       <c r="C9" s="2"/>
@@ -2198,12 +2200,12 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2230,105 +2232,105 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="Z11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="16"/>
-    </row>
-    <row r="12" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="15"/>
+    </row>
+    <row r="12" spans="1:44" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2338,7 +2340,7 @@
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2387,7 +2389,7 @@
       <c r="V12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="W12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="X12" s="4" t="s">
@@ -2399,9 +2401,9 @@
       <c r="Z12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="1:44" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2411,7 +2413,7 @@
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2458,7 +2460,7 @@
       <c r="V13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="W13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X13" s="4" t="s">
@@ -2471,7 +2473,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2483,7 @@
       <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2528,7 +2530,7 @@
       <c r="V14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="8" t="s">
+      <c r="W14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="X14" s="4" t="s">
@@ -2540,9 +2542,9 @@
       <c r="Z14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC14" s="9"/>
-    </row>
-    <row r="15" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="1:44" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2554,7 @@
       <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2601,7 +2603,7 @@
       <c r="V15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="W15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="X15" s="4" t="s">
@@ -2613,9 +2615,9 @@
       <c r="Z15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC15" s="9"/>
-    </row>
-    <row r="16" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:44" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2625,7 +2627,7 @@
       <c r="C16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2674,7 +2676,7 @@
       <c r="V16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="X16" s="4" t="s">
@@ -2686,9 +2688,9 @@
       <c r="Z16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC16" s="9"/>
-    </row>
-    <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC16" s="8"/>
+    </row>
+    <row r="17" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2747,7 +2749,7 @@
       <c r="V17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W17" s="8" t="s">
+      <c r="W17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X17" s="4" t="s">
@@ -2760,7 +2762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2770,7 +2772,7 @@
       <c r="C18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2819,7 +2821,7 @@
       <c r="V18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X18" s="4" t="s">
@@ -2832,7 +2834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2842,7 +2844,7 @@
       <c r="C19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2891,7 +2893,7 @@
       <c r="V19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X19" s="4" t="s">
@@ -2904,7 +2906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +2916,7 @@
       <c r="C20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2963,7 +2965,7 @@
       <c r="V20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W20" s="8" t="s">
+      <c r="W20" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X20" s="4" t="s">
@@ -2975,9 +2977,9 @@
       <c r="Z20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC20" s="9"/>
-    </row>
-    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2987,7 +2989,7 @@
       <c r="C21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3036,7 +3038,7 @@
       <c r="V21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W21" s="8" t="s">
+      <c r="W21" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X21" s="4" t="s">
@@ -3049,7 +3051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -3059,7 +3061,7 @@
       <c r="C22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -3108,7 +3110,7 @@
       <c r="V22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W22" s="8" t="s">
+      <c r="W22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X22" s="4" t="s">
@@ -3121,7 +3123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3133,7 @@
       <c r="C23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3180,7 +3182,7 @@
       <c r="V23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W23" s="8" t="s">
+      <c r="W23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X23" s="4" t="s">
@@ -3193,7 +3195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -3203,7 +3205,7 @@
       <c r="C24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>158</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -3252,7 +3254,7 @@
       <c r="V24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W24" s="8" t="s">
+      <c r="W24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X24" s="4" t="s">
@@ -3264,9 +3266,9 @@
       <c r="Z24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC24" s="9"/>
-    </row>
-    <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3276,7 +3278,7 @@
       <c r="C25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3325,7 +3327,7 @@
       <c r="V25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="8" t="s">
+      <c r="W25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X25" s="4" t="s">
@@ -3338,7 +3340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -3348,7 +3350,7 @@
       <c r="C26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>173</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3397,7 +3399,7 @@
       <c r="V26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="8" t="s">
+      <c r="W26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X26" s="4" t="s">
@@ -3409,9 +3411,9 @@
       <c r="Z26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC26" s="8"/>
+    </row>
+    <row r="27" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -3421,7 +3423,7 @@
       <c r="C27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3470,7 +3472,7 @@
       <c r="V27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="8" t="s">
+      <c r="W27" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X27" s="4" t="s">
@@ -3482,9 +3484,9 @@
       <c r="Z27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC27" s="9"/>
-    </row>
-    <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC27" s="8"/>
+    </row>
+    <row r="28" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -3494,7 +3496,7 @@
       <c r="C28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3543,7 +3545,7 @@
       <c r="V28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X28" s="4" t="s">
@@ -3556,7 +3558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -3566,7 +3568,7 @@
       <c r="C29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>195</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3615,7 +3617,7 @@
       <c r="V29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W29" s="8" t="s">
+      <c r="W29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X29" s="4" t="s">
@@ -3628,7 +3630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -3638,7 +3640,7 @@
       <c r="C30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>203</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3687,7 +3689,7 @@
       <c r="V30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="8" t="s">
+      <c r="W30" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X30" s="4" t="s">
@@ -3700,7 +3702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -3710,7 +3712,7 @@
       <c r="C31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3757,7 +3759,7 @@
       <c r="V31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W31" s="8" t="s">
+      <c r="W31" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X31" s="4" t="s">
@@ -3769,9 +3771,9 @@
       <c r="Z31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC31" s="9"/>
-    </row>
-    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC31" s="8"/>
+    </row>
+    <row r="32" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -3781,7 +3783,7 @@
       <c r="C32" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>218</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3830,7 +3832,7 @@
       <c r="V32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W32" s="8" t="s">
+      <c r="W32" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X32" s="4" t="s">
@@ -3842,9 +3844,9 @@
       <c r="Z32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC32" s="9"/>
-    </row>
-    <row r="33" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -3854,7 +3856,7 @@
       <c r="C33" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3903,7 +3905,7 @@
       <c r="V33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W33" s="8" t="s">
+      <c r="W33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="X33" s="4" t="s">
@@ -3915,9 +3917,9 @@
       <c r="Z33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC33" s="9"/>
-    </row>
-    <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC33" s="8"/>
+    </row>
+    <row r="34" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -3927,7 +3929,7 @@
       <c r="C34" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3976,7 +3978,7 @@
       <c r="V34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="W34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X34" s="4" t="s">
@@ -3988,9 +3990,9 @@
       <c r="Z34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC34" s="9"/>
-    </row>
-    <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC34" s="8"/>
+    </row>
+    <row r="35" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -4000,7 +4002,7 @@
       <c r="C35" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -4049,7 +4051,7 @@
       <c r="V35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="W35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X35" s="4" t="s">
@@ -4062,7 +4064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -4072,7 +4074,7 @@
       <c r="C36" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -4121,7 +4123,7 @@
       <c r="V36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W36" s="8" t="s">
+      <c r="W36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X36" s="4" t="s">
@@ -4134,7 +4136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -4144,7 +4146,7 @@
       <c r="C37" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>258</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -4191,7 +4193,7 @@
       <c r="V37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W37" s="8" t="s">
+      <c r="W37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="X37" s="4" t="s">
@@ -4204,5203 +4206,5206 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="J38" s="2"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="J39" s="2"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="J40" s="2"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="J41" s="2"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="J42" s="2"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="J43" s="2"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="J44" s="2"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="J45" s="2"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="J46" s="2"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="J47" s="2"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="J48" s="2"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="J49" s="2"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="J50" s="2"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="J51" s="2"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="J52" s="2"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="J53" s="2"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="J54" s="2"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="J55" s="2"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="J56" s="2"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="J57" s="2"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="J58" s="2"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="J59" s="2"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="J60" s="2"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="J61" s="2"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="J62" s="2"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="J63" s="2"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="J64" s="2"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="J65" s="2"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="J66" s="2"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="J67" s="2"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="J68" s="2"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="J69" s="2"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="J70" s="2"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="J71" s="2"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="J72" s="2"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="J73" s="2"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="J74" s="2"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="J75" s="2"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="J76" s="2"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="J77" s="2"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="J78" s="2"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="J79" s="2"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="J80" s="2"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="J81" s="2"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="J82" s="2"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="J83" s="2"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="J84" s="2"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="J85" s="2"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="J86" s="2"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="J87" s="2"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="J88" s="2"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="J89" s="2"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="J90" s="2"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="J91" s="2"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="J92" s="2"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="J93" s="2"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="J94" s="2"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="J95" s="2"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="J96" s="2"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="J97" s="2"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="J98" s="2"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="J99" s="2"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="J100" s="2"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="J101" s="2"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="J102" s="2"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="J103" s="2"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="J104" s="2"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="J105" s="2"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="J106" s="2"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="J107" s="2"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="J108" s="2"/>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="J109" s="2"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="J110" s="2"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="J111" s="2"/>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="J112" s="2"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="J113" s="2"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="J114" s="2"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="J115" s="2"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="J116" s="2"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="J117" s="2"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="J118" s="2"/>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="J119" s="2"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="J120" s="2"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="J121" s="2"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="J122" s="2"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="J123" s="2"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="J124" s="2"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="J125" s="2"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="J126" s="2"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="J127" s="2"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="J128" s="2"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="J129" s="2"/>
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="J130" s="2"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="J131" s="2"/>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="J132" s="2"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="J133" s="2"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="J134" s="2"/>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="J135" s="2"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="J136" s="2"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="J137" s="2"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="J138" s="2"/>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="J139" s="2"/>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="J140" s="2"/>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="J141" s="2"/>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="J142" s="2"/>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="J143" s="2"/>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="J144" s="2"/>
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
     </row>
-    <row r="145" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="J145" s="2"/>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="J146" s="2"/>
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
     </row>
-    <row r="147" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="J147" s="2"/>
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
     </row>
-    <row r="148" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="J148" s="2"/>
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="J149" s="2"/>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="J150" s="2"/>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="J151" s="2"/>
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="J152" s="2"/>
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="J153" s="2"/>
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
     </row>
-    <row r="154" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="J154" s="2"/>
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
     </row>
-    <row r="155" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="J155" s="2"/>
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
     </row>
-    <row r="156" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="J156" s="2"/>
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
     </row>
-    <row r="157" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="J157" s="2"/>
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="J158" s="2"/>
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="J159" s="2"/>
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
     </row>
-    <row r="160" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="J160" s="2"/>
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
     </row>
-    <row r="161" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="J161" s="2"/>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="J162" s="2"/>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="J163" s="2"/>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="J164" s="2"/>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
     </row>
-    <row r="165" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="J165" s="2"/>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="J166" s="2"/>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="J167" s="2"/>
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="J168" s="2"/>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="J169" s="2"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="J170" s="2"/>
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="J171" s="2"/>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="J172" s="2"/>
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="J173" s="2"/>
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="J174" s="2"/>
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
     </row>
-    <row r="175" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="J175" s="2"/>
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
     </row>
-    <row r="176" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="J176" s="2"/>
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="J177" s="2"/>
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
     </row>
-    <row r="178" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="J178" s="2"/>
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="J179" s="2"/>
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="J180" s="2"/>
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="J181" s="2"/>
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="J182" s="2"/>
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="J183" s="2"/>
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="J184" s="2"/>
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="J185" s="2"/>
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="J186" s="2"/>
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
     </row>
-    <row r="187" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="J187" s="2"/>
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="J188" s="2"/>
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="J189" s="2"/>
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="J190" s="2"/>
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="J191" s="2"/>
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
     </row>
-    <row r="192" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="J192" s="2"/>
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="J193" s="2"/>
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
     </row>
-    <row r="194" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="J194" s="2"/>
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="J195" s="2"/>
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="J196" s="2"/>
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="J197" s="2"/>
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="J198" s="2"/>
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="J199" s="2"/>
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="J200" s="2"/>
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="J201" s="2"/>
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="J202" s="2"/>
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="J203" s="2"/>
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="J204" s="2"/>
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="J205" s="2"/>
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="J206" s="2"/>
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="J207" s="2"/>
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="J208" s="2"/>
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="J209" s="2"/>
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="J210" s="2"/>
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="J211" s="2"/>
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
     </row>
-    <row r="212" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="J212" s="2"/>
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="J213" s="2"/>
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
     </row>
-    <row r="214" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="J214" s="2"/>
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
     </row>
-    <row r="215" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="J215" s="2"/>
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
     </row>
-    <row r="216" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="J216" s="2"/>
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
     </row>
-    <row r="217" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="J217" s="2"/>
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
     </row>
-    <row r="218" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="J218" s="2"/>
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
     </row>
-    <row r="219" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="J219" s="2"/>
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
     </row>
-    <row r="220" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="J220" s="2"/>
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
-    <row r="221" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="J221" s="2"/>
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
     </row>
-    <row r="222" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="J222" s="2"/>
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
     </row>
-    <row r="223" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="J223" s="2"/>
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
     </row>
-    <row r="224" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="J224" s="2"/>
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
     </row>
-    <row r="225" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="J225" s="2"/>
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
     </row>
-    <row r="226" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="J226" s="2"/>
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
     </row>
-    <row r="227" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="J227" s="2"/>
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
     </row>
-    <row r="228" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="J228" s="2"/>
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
     </row>
-    <row r="229" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="J229" s="2"/>
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
     </row>
-    <row r="230" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="J230" s="2"/>
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
     </row>
-    <row r="231" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="J231" s="2"/>
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
     </row>
-    <row r="232" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="J232" s="2"/>
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
     </row>
-    <row r="233" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="J233" s="2"/>
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
     </row>
-    <row r="234" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="J234" s="2"/>
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
     </row>
-    <row r="235" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="J235" s="2"/>
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
     </row>
-    <row r="236" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="J236" s="2"/>
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
     </row>
-    <row r="237" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="J237" s="2"/>
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
     </row>
-    <row r="238" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="J238" s="2"/>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
     </row>
-    <row r="239" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="J239" s="2"/>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
     </row>
-    <row r="240" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="J240" s="2"/>
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
     </row>
-    <row r="241" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="J241" s="2"/>
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
     </row>
-    <row r="242" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="J242" s="2"/>
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
     </row>
-    <row r="243" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="J243" s="2"/>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
     </row>
-    <row r="244" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="J244" s="2"/>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
     </row>
-    <row r="245" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="J245" s="2"/>
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
     </row>
-    <row r="246" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="J246" s="2"/>
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
     </row>
-    <row r="247" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="J247" s="2"/>
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
     </row>
-    <row r="248" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="J248" s="2"/>
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
     </row>
-    <row r="249" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="J249" s="2"/>
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
     </row>
-    <row r="250" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="J250" s="2"/>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
     </row>
-    <row r="251" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="J251" s="2"/>
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
     </row>
-    <row r="252" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="J252" s="2"/>
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
     </row>
-    <row r="253" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="J253" s="2"/>
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
     </row>
-    <row r="254" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="J254" s="2"/>
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
     </row>
-    <row r="255" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="J255" s="2"/>
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
     </row>
-    <row r="256" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="J256" s="2"/>
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
     </row>
-    <row r="257" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="J257" s="2"/>
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
     </row>
-    <row r="258" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="J258" s="2"/>
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
     </row>
-    <row r="259" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="J259" s="2"/>
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
     </row>
-    <row r="260" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="J260" s="2"/>
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
     </row>
-    <row r="261" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="J261" s="2"/>
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
     </row>
-    <row r="262" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="J262" s="2"/>
       <c r="W262" s="3"/>
       <c r="X262" s="3"/>
     </row>
-    <row r="263" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="J263" s="2"/>
       <c r="W263" s="3"/>
       <c r="X263" s="3"/>
     </row>
-    <row r="264" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="J264" s="2"/>
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
     </row>
-    <row r="265" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="J265" s="2"/>
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
     </row>
-    <row r="266" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="J266" s="2"/>
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
     </row>
-    <row r="267" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="J267" s="2"/>
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
     </row>
-    <row r="268" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="J268" s="2"/>
       <c r="W268" s="3"/>
       <c r="X268" s="3"/>
     </row>
-    <row r="269" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="J269" s="2"/>
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
     </row>
-    <row r="270" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="J270" s="2"/>
       <c r="W270" s="3"/>
       <c r="X270" s="3"/>
     </row>
-    <row r="271" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="J271" s="2"/>
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
     </row>
-    <row r="272" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="J272" s="2"/>
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
     </row>
-    <row r="273" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="J273" s="2"/>
       <c r="W273" s="3"/>
       <c r="X273" s="3"/>
     </row>
-    <row r="274" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="J274" s="2"/>
       <c r="W274" s="3"/>
       <c r="X274" s="3"/>
     </row>
-    <row r="275" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="J275" s="2"/>
       <c r="W275" s="3"/>
       <c r="X275" s="3"/>
     </row>
-    <row r="276" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="J276" s="2"/>
       <c r="W276" s="3"/>
       <c r="X276" s="3"/>
     </row>
-    <row r="277" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="J277" s="2"/>
       <c r="W277" s="3"/>
       <c r="X277" s="3"/>
     </row>
-    <row r="278" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="J278" s="2"/>
       <c r="W278" s="3"/>
       <c r="X278" s="3"/>
     </row>
-    <row r="279" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="J279" s="2"/>
       <c r="W279" s="3"/>
       <c r="X279" s="3"/>
     </row>
-    <row r="280" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="J280" s="2"/>
       <c r="W280" s="3"/>
       <c r="X280" s="3"/>
     </row>
-    <row r="281" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="J281" s="2"/>
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
     </row>
-    <row r="282" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="J282" s="2"/>
       <c r="W282" s="3"/>
       <c r="X282" s="3"/>
     </row>
-    <row r="283" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="J283" s="2"/>
       <c r="W283" s="3"/>
       <c r="X283" s="3"/>
     </row>
-    <row r="284" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="J284" s="2"/>
       <c r="W284" s="3"/>
       <c r="X284" s="3"/>
     </row>
-    <row r="285" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="J285" s="2"/>
       <c r="W285" s="3"/>
       <c r="X285" s="3"/>
     </row>
-    <row r="286" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="J286" s="2"/>
       <c r="W286" s="3"/>
       <c r="X286" s="3"/>
     </row>
-    <row r="287" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="J287" s="2"/>
       <c r="W287" s="3"/>
       <c r="X287" s="3"/>
     </row>
-    <row r="288" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="J288" s="2"/>
       <c r="W288" s="3"/>
       <c r="X288" s="3"/>
     </row>
-    <row r="289" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="J289" s="2"/>
       <c r="W289" s="3"/>
       <c r="X289" s="3"/>
     </row>
-    <row r="290" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="J290" s="2"/>
       <c r="W290" s="3"/>
       <c r="X290" s="3"/>
     </row>
-    <row r="291" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="J291" s="2"/>
       <c r="W291" s="3"/>
       <c r="X291" s="3"/>
     </row>
-    <row r="292" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="J292" s="2"/>
       <c r="W292" s="3"/>
       <c r="X292" s="3"/>
     </row>
-    <row r="293" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="J293" s="2"/>
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
     </row>
-    <row r="294" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="J294" s="2"/>
       <c r="W294" s="3"/>
       <c r="X294" s="3"/>
     </row>
-    <row r="295" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="J295" s="2"/>
       <c r="W295" s="3"/>
       <c r="X295" s="3"/>
     </row>
-    <row r="296" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="J296" s="2"/>
       <c r="W296" s="3"/>
       <c r="X296" s="3"/>
     </row>
-    <row r="297" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="J297" s="2"/>
       <c r="W297" s="3"/>
       <c r="X297" s="3"/>
     </row>
-    <row r="298" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="J298" s="2"/>
       <c r="W298" s="3"/>
       <c r="X298" s="3"/>
     </row>
-    <row r="299" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="J299" s="2"/>
       <c r="W299" s="3"/>
       <c r="X299" s="3"/>
     </row>
-    <row r="300" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="J300" s="2"/>
       <c r="W300" s="3"/>
       <c r="X300" s="3"/>
     </row>
-    <row r="301" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="J301" s="2"/>
       <c r="W301" s="3"/>
       <c r="X301" s="3"/>
     </row>
-    <row r="302" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="J302" s="2"/>
       <c r="W302" s="3"/>
       <c r="X302" s="3"/>
     </row>
-    <row r="303" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="J303" s="2"/>
       <c r="W303" s="3"/>
       <c r="X303" s="3"/>
     </row>
-    <row r="304" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="J304" s="2"/>
       <c r="W304" s="3"/>
       <c r="X304" s="3"/>
     </row>
-    <row r="305" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="J305" s="2"/>
       <c r="W305" s="3"/>
       <c r="X305" s="3"/>
     </row>
-    <row r="306" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="J306" s="2"/>
       <c r="W306" s="3"/>
       <c r="X306" s="3"/>
     </row>
-    <row r="307" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="J307" s="2"/>
       <c r="W307" s="3"/>
       <c r="X307" s="3"/>
     </row>
-    <row r="308" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="J308" s="2"/>
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
     </row>
-    <row r="309" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="J309" s="2"/>
       <c r="W309" s="3"/>
       <c r="X309" s="3"/>
     </row>
-    <row r="310" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="J310" s="2"/>
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
     </row>
-    <row r="311" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="J311" s="2"/>
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
     </row>
-    <row r="312" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="J312" s="2"/>
       <c r="W312" s="3"/>
       <c r="X312" s="3"/>
     </row>
-    <row r="313" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="J313" s="2"/>
       <c r="W313" s="3"/>
       <c r="X313" s="3"/>
     </row>
-    <row r="314" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="J314" s="2"/>
       <c r="W314" s="3"/>
       <c r="X314" s="3"/>
     </row>
-    <row r="315" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="J315" s="2"/>
       <c r="W315" s="3"/>
       <c r="X315" s="3"/>
     </row>
-    <row r="316" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="J316" s="2"/>
       <c r="W316" s="3"/>
       <c r="X316" s="3"/>
     </row>
-    <row r="317" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="J317" s="2"/>
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
     </row>
-    <row r="318" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="J318" s="2"/>
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
     </row>
-    <row r="319" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="J319" s="2"/>
       <c r="W319" s="3"/>
       <c r="X319" s="3"/>
     </row>
-    <row r="320" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="J320" s="2"/>
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
     </row>
-    <row r="321" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="J321" s="2"/>
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
     </row>
-    <row r="322" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="J322" s="2"/>
       <c r="W322" s="3"/>
       <c r="X322" s="3"/>
     </row>
-    <row r="323" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="J323" s="2"/>
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
     </row>
-    <row r="324" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="J324" s="2"/>
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
     </row>
-    <row r="325" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="J325" s="2"/>
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
     </row>
-    <row r="326" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="J326" s="2"/>
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
     </row>
-    <row r="327" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="J327" s="2"/>
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
     </row>
-    <row r="328" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="J328" s="2"/>
       <c r="W328" s="3"/>
       <c r="X328" s="3"/>
     </row>
-    <row r="329" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="J329" s="2"/>
       <c r="W329" s="3"/>
       <c r="X329" s="3"/>
     </row>
-    <row r="330" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="J330" s="2"/>
       <c r="W330" s="3"/>
       <c r="X330" s="3"/>
     </row>
-    <row r="331" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="J331" s="2"/>
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
     </row>
-    <row r="332" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="J332" s="2"/>
       <c r="W332" s="3"/>
       <c r="X332" s="3"/>
     </row>
-    <row r="333" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="J333" s="2"/>
       <c r="W333" s="3"/>
       <c r="X333" s="3"/>
     </row>
-    <row r="334" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="J334" s="2"/>
       <c r="W334" s="3"/>
       <c r="X334" s="3"/>
     </row>
-    <row r="335" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="J335" s="2"/>
       <c r="W335" s="3"/>
       <c r="X335" s="3"/>
     </row>
-    <row r="336" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="J336" s="2"/>
       <c r="W336" s="3"/>
       <c r="X336" s="3"/>
     </row>
-    <row r="337" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="J337" s="2"/>
       <c r="W337" s="3"/>
       <c r="X337" s="3"/>
     </row>
-    <row r="338" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="J338" s="2"/>
       <c r="W338" s="3"/>
       <c r="X338" s="3"/>
     </row>
-    <row r="339" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="J339" s="2"/>
       <c r="W339" s="3"/>
       <c r="X339" s="3"/>
     </row>
-    <row r="340" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="J340" s="2"/>
       <c r="W340" s="3"/>
       <c r="X340" s="3"/>
     </row>
-    <row r="341" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="J341" s="2"/>
       <c r="W341" s="3"/>
       <c r="X341" s="3"/>
     </row>
-    <row r="342" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="J342" s="2"/>
       <c r="W342" s="3"/>
       <c r="X342" s="3"/>
     </row>
-    <row r="343" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="J343" s="2"/>
       <c r="W343" s="3"/>
       <c r="X343" s="3"/>
     </row>
-    <row r="344" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="J344" s="2"/>
       <c r="W344" s="3"/>
       <c r="X344" s="3"/>
     </row>
-    <row r="345" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="J345" s="2"/>
       <c r="W345" s="3"/>
       <c r="X345" s="3"/>
     </row>
-    <row r="346" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="J346" s="2"/>
       <c r="W346" s="3"/>
       <c r="X346" s="3"/>
     </row>
-    <row r="347" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="J347" s="2"/>
       <c r="W347" s="3"/>
       <c r="X347" s="3"/>
     </row>
-    <row r="348" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="J348" s="2"/>
       <c r="W348" s="3"/>
       <c r="X348" s="3"/>
     </row>
-    <row r="349" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="J349" s="2"/>
       <c r="W349" s="3"/>
       <c r="X349" s="3"/>
     </row>
-    <row r="350" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="J350" s="2"/>
       <c r="W350" s="3"/>
       <c r="X350" s="3"/>
     </row>
-    <row r="351" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="J351" s="2"/>
       <c r="W351" s="3"/>
       <c r="X351" s="3"/>
     </row>
-    <row r="352" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="J352" s="2"/>
       <c r="W352" s="3"/>
       <c r="X352" s="3"/>
     </row>
-    <row r="353" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="J353" s="2"/>
       <c r="W353" s="3"/>
       <c r="X353" s="3"/>
     </row>
-    <row r="354" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="J354" s="2"/>
       <c r="W354" s="3"/>
       <c r="X354" s="3"/>
     </row>
-    <row r="355" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="J355" s="2"/>
       <c r="W355" s="3"/>
       <c r="X355" s="3"/>
     </row>
-    <row r="356" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="J356" s="2"/>
       <c r="W356" s="3"/>
       <c r="X356" s="3"/>
     </row>
-    <row r="357" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="J357" s="2"/>
       <c r="W357" s="3"/>
       <c r="X357" s="3"/>
     </row>
-    <row r="358" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="J358" s="2"/>
       <c r="W358" s="3"/>
       <c r="X358" s="3"/>
     </row>
-    <row r="359" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="J359" s="2"/>
       <c r="W359" s="3"/>
       <c r="X359" s="3"/>
     </row>
-    <row r="360" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="J360" s="2"/>
       <c r="W360" s="3"/>
       <c r="X360" s="3"/>
     </row>
-    <row r="361" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="J361" s="2"/>
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
     </row>
-    <row r="362" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="J362" s="2"/>
       <c r="W362" s="3"/>
       <c r="X362" s="3"/>
     </row>
-    <row r="363" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="J363" s="2"/>
       <c r="W363" s="3"/>
       <c r="X363" s="3"/>
     </row>
-    <row r="364" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="J364" s="2"/>
       <c r="W364" s="3"/>
       <c r="X364" s="3"/>
     </row>
-    <row r="365" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="J365" s="2"/>
       <c r="W365" s="3"/>
       <c r="X365" s="3"/>
     </row>
-    <row r="366" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="J366" s="2"/>
       <c r="W366" s="3"/>
       <c r="X366" s="3"/>
     </row>
-    <row r="367" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="J367" s="2"/>
       <c r="W367" s="3"/>
       <c r="X367" s="3"/>
     </row>
-    <row r="368" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="J368" s="2"/>
       <c r="W368" s="3"/>
       <c r="X368" s="3"/>
     </row>
-    <row r="369" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="J369" s="2"/>
       <c r="W369" s="3"/>
       <c r="X369" s="3"/>
     </row>
-    <row r="370" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="J370" s="2"/>
       <c r="W370" s="3"/>
       <c r="X370" s="3"/>
     </row>
-    <row r="371" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="J371" s="2"/>
       <c r="W371" s="3"/>
       <c r="X371" s="3"/>
     </row>
-    <row r="372" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="J372" s="2"/>
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
     </row>
-    <row r="373" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="J373" s="2"/>
       <c r="W373" s="3"/>
       <c r="X373" s="3"/>
     </row>
-    <row r="374" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="J374" s="2"/>
       <c r="W374" s="3"/>
       <c r="X374" s="3"/>
     </row>
-    <row r="375" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="J375" s="2"/>
       <c r="W375" s="3"/>
       <c r="X375" s="3"/>
     </row>
-    <row r="376" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="J376" s="2"/>
       <c r="W376" s="3"/>
       <c r="X376" s="3"/>
     </row>
-    <row r="377" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="J377" s="2"/>
       <c r="W377" s="3"/>
       <c r="X377" s="3"/>
     </row>
-    <row r="378" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="J378" s="2"/>
       <c r="W378" s="3"/>
       <c r="X378" s="3"/>
     </row>
-    <row r="379" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="J379" s="2"/>
       <c r="W379" s="3"/>
       <c r="X379" s="3"/>
     </row>
-    <row r="380" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="J380" s="2"/>
       <c r="W380" s="3"/>
       <c r="X380" s="3"/>
     </row>
-    <row r="381" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="J381" s="2"/>
       <c r="W381" s="3"/>
       <c r="X381" s="3"/>
     </row>
-    <row r="382" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="J382" s="2"/>
       <c r="W382" s="3"/>
       <c r="X382" s="3"/>
     </row>
-    <row r="383" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="J383" s="2"/>
       <c r="W383" s="3"/>
       <c r="X383" s="3"/>
     </row>
-    <row r="384" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="J384" s="2"/>
       <c r="W384" s="3"/>
       <c r="X384" s="3"/>
     </row>
-    <row r="385" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="J385" s="2"/>
       <c r="W385" s="3"/>
       <c r="X385" s="3"/>
     </row>
-    <row r="386" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="J386" s="2"/>
       <c r="W386" s="3"/>
       <c r="X386" s="3"/>
     </row>
-    <row r="387" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="J387" s="2"/>
       <c r="W387" s="3"/>
       <c r="X387" s="3"/>
     </row>
-    <row r="388" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="J388" s="2"/>
       <c r="W388" s="3"/>
       <c r="X388" s="3"/>
     </row>
-    <row r="389" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="J389" s="2"/>
       <c r="W389" s="3"/>
       <c r="X389" s="3"/>
     </row>
-    <row r="390" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="J390" s="2"/>
       <c r="W390" s="3"/>
       <c r="X390" s="3"/>
     </row>
-    <row r="391" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="J391" s="2"/>
       <c r="W391" s="3"/>
       <c r="X391" s="3"/>
     </row>
-    <row r="392" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="J392" s="2"/>
       <c r="W392" s="3"/>
       <c r="X392" s="3"/>
     </row>
-    <row r="393" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="J393" s="2"/>
       <c r="W393" s="3"/>
       <c r="X393" s="3"/>
     </row>
-    <row r="394" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="J394" s="2"/>
       <c r="W394" s="3"/>
       <c r="X394" s="3"/>
     </row>
-    <row r="395" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="J395" s="2"/>
       <c r="W395" s="3"/>
       <c r="X395" s="3"/>
     </row>
-    <row r="396" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="J396" s="2"/>
       <c r="W396" s="3"/>
       <c r="X396" s="3"/>
     </row>
-    <row r="397" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="J397" s="2"/>
       <c r="W397" s="3"/>
       <c r="X397" s="3"/>
     </row>
-    <row r="398" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="J398" s="2"/>
       <c r="W398" s="3"/>
       <c r="X398" s="3"/>
     </row>
-    <row r="399" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="J399" s="2"/>
       <c r="W399" s="3"/>
       <c r="X399" s="3"/>
     </row>
-    <row r="400" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="J400" s="2"/>
       <c r="W400" s="3"/>
       <c r="X400" s="3"/>
     </row>
-    <row r="401" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="J401" s="2"/>
       <c r="W401" s="3"/>
       <c r="X401" s="3"/>
     </row>
-    <row r="402" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="J402" s="2"/>
       <c r="W402" s="3"/>
       <c r="X402" s="3"/>
     </row>
-    <row r="403" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="J403" s="2"/>
       <c r="W403" s="3"/>
       <c r="X403" s="3"/>
     </row>
-    <row r="404" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="J404" s="2"/>
       <c r="W404" s="3"/>
       <c r="X404" s="3"/>
     </row>
-    <row r="405" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="J405" s="2"/>
       <c r="W405" s="3"/>
       <c r="X405" s="3"/>
     </row>
-    <row r="406" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="J406" s="2"/>
       <c r="W406" s="3"/>
       <c r="X406" s="3"/>
     </row>
-    <row r="407" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="J407" s="2"/>
       <c r="W407" s="3"/>
       <c r="X407" s="3"/>
     </row>
-    <row r="408" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="J408" s="2"/>
       <c r="W408" s="3"/>
       <c r="X408" s="3"/>
     </row>
-    <row r="409" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="J409" s="2"/>
       <c r="W409" s="3"/>
       <c r="X409" s="3"/>
     </row>
-    <row r="410" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="J410" s="2"/>
       <c r="W410" s="3"/>
       <c r="X410" s="3"/>
     </row>
-    <row r="411" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="J411" s="2"/>
       <c r="W411" s="3"/>
       <c r="X411" s="3"/>
     </row>
-    <row r="412" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="J412" s="2"/>
       <c r="W412" s="3"/>
       <c r="X412" s="3"/>
     </row>
-    <row r="413" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="J413" s="2"/>
       <c r="W413" s="3"/>
       <c r="X413" s="3"/>
     </row>
-    <row r="414" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="J414" s="2"/>
       <c r="W414" s="3"/>
       <c r="X414" s="3"/>
     </row>
-    <row r="415" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="J415" s="2"/>
       <c r="W415" s="3"/>
       <c r="X415" s="3"/>
     </row>
-    <row r="416" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="J416" s="2"/>
       <c r="W416" s="3"/>
       <c r="X416" s="3"/>
     </row>
-    <row r="417" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="J417" s="2"/>
       <c r="W417" s="3"/>
       <c r="X417" s="3"/>
     </row>
-    <row r="418" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="J418" s="2"/>
       <c r="W418" s="3"/>
       <c r="X418" s="3"/>
     </row>
-    <row r="419" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="J419" s="2"/>
       <c r="W419" s="3"/>
       <c r="X419" s="3"/>
     </row>
-    <row r="420" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="J420" s="2"/>
       <c r="W420" s="3"/>
       <c r="X420" s="3"/>
     </row>
-    <row r="421" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="J421" s="2"/>
       <c r="W421" s="3"/>
       <c r="X421" s="3"/>
     </row>
-    <row r="422" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="J422" s="2"/>
       <c r="W422" s="3"/>
       <c r="X422" s="3"/>
     </row>
-    <row r="423" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="J423" s="2"/>
       <c r="W423" s="3"/>
       <c r="X423" s="3"/>
     </row>
-    <row r="424" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="J424" s="2"/>
       <c r="W424" s="3"/>
       <c r="X424" s="3"/>
     </row>
-    <row r="425" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="J425" s="2"/>
       <c r="W425" s="3"/>
       <c r="X425" s="3"/>
     </row>
-    <row r="426" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="J426" s="2"/>
       <c r="W426" s="3"/>
       <c r="X426" s="3"/>
     </row>
-    <row r="427" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="J427" s="2"/>
       <c r="W427" s="3"/>
       <c r="X427" s="3"/>
     </row>
-    <row r="428" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="J428" s="2"/>
       <c r="W428" s="3"/>
       <c r="X428" s="3"/>
     </row>
-    <row r="429" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="J429" s="2"/>
       <c r="W429" s="3"/>
       <c r="X429" s="3"/>
     </row>
-    <row r="430" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="J430" s="2"/>
       <c r="W430" s="3"/>
       <c r="X430" s="3"/>
     </row>
-    <row r="431" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="J431" s="2"/>
       <c r="W431" s="3"/>
       <c r="X431" s="3"/>
     </row>
-    <row r="432" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="J432" s="2"/>
       <c r="W432" s="3"/>
       <c r="X432" s="3"/>
     </row>
-    <row r="433" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="J433" s="2"/>
       <c r="W433" s="3"/>
       <c r="X433" s="3"/>
     </row>
-    <row r="434" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="J434" s="2"/>
       <c r="W434" s="3"/>
       <c r="X434" s="3"/>
     </row>
-    <row r="435" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
       <c r="J435" s="2"/>
       <c r="W435" s="3"/>
       <c r="X435" s="3"/>
     </row>
-    <row r="436" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
       <c r="J436" s="2"/>
       <c r="W436" s="3"/>
       <c r="X436" s="3"/>
     </row>
-    <row r="437" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
       <c r="J437" s="2"/>
       <c r="W437" s="3"/>
       <c r="X437" s="3"/>
     </row>
-    <row r="438" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
       <c r="J438" s="2"/>
       <c r="W438" s="3"/>
       <c r="X438" s="3"/>
     </row>
-    <row r="439" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
       <c r="J439" s="2"/>
       <c r="W439" s="3"/>
       <c r="X439" s="3"/>
     </row>
-    <row r="440" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
       <c r="J440" s="2"/>
       <c r="W440" s="3"/>
       <c r="X440" s="3"/>
     </row>
-    <row r="441" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
       <c r="J441" s="2"/>
       <c r="W441" s="3"/>
       <c r="X441" s="3"/>
     </row>
-    <row r="442" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
       <c r="J442" s="2"/>
       <c r="W442" s="3"/>
       <c r="X442" s="3"/>
     </row>
-    <row r="443" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
       <c r="J443" s="2"/>
       <c r="W443" s="3"/>
       <c r="X443" s="3"/>
     </row>
-    <row r="444" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
       <c r="J444" s="2"/>
       <c r="W444" s="3"/>
       <c r="X444" s="3"/>
     </row>
-    <row r="445" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
       <c r="J445" s="2"/>
       <c r="W445" s="3"/>
       <c r="X445" s="3"/>
     </row>
-    <row r="446" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
       <c r="J446" s="2"/>
       <c r="W446" s="3"/>
       <c r="X446" s="3"/>
     </row>
-    <row r="447" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
       <c r="J447" s="2"/>
       <c r="W447" s="3"/>
       <c r="X447" s="3"/>
     </row>
-    <row r="448" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
       <c r="J448" s="2"/>
       <c r="W448" s="3"/>
       <c r="X448" s="3"/>
     </row>
-    <row r="449" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
       <c r="J449" s="2"/>
       <c r="W449" s="3"/>
       <c r="X449" s="3"/>
     </row>
-    <row r="450" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
       <c r="J450" s="2"/>
       <c r="W450" s="3"/>
       <c r="X450" s="3"/>
     </row>
-    <row r="451" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
       <c r="J451" s="2"/>
       <c r="W451" s="3"/>
       <c r="X451" s="3"/>
     </row>
-    <row r="452" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
       <c r="J452" s="2"/>
       <c r="W452" s="3"/>
       <c r="X452" s="3"/>
     </row>
-    <row r="453" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
       <c r="J453" s="2"/>
       <c r="W453" s="3"/>
       <c r="X453" s="3"/>
     </row>
-    <row r="454" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
       <c r="J454" s="2"/>
       <c r="W454" s="3"/>
       <c r="X454" s="3"/>
     </row>
-    <row r="455" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
       <c r="J455" s="2"/>
       <c r="W455" s="3"/>
       <c r="X455" s="3"/>
     </row>
-    <row r="456" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
       <c r="J456" s="2"/>
       <c r="W456" s="3"/>
       <c r="X456" s="3"/>
     </row>
-    <row r="457" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
       <c r="J457" s="2"/>
       <c r="W457" s="3"/>
       <c r="X457" s="3"/>
     </row>
-    <row r="458" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
       <c r="J458" s="2"/>
       <c r="W458" s="3"/>
       <c r="X458" s="3"/>
     </row>
-    <row r="459" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
       <c r="J459" s="2"/>
       <c r="W459" s="3"/>
       <c r="X459" s="3"/>
     </row>
-    <row r="460" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
       <c r="J460" s="2"/>
       <c r="W460" s="3"/>
       <c r="X460" s="3"/>
     </row>
-    <row r="461" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
       <c r="J461" s="2"/>
       <c r="W461" s="3"/>
       <c r="X461" s="3"/>
     </row>
-    <row r="462" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
       <c r="J462" s="2"/>
       <c r="W462" s="3"/>
       <c r="X462" s="3"/>
     </row>
-    <row r="463" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
       <c r="J463" s="2"/>
       <c r="W463" s="3"/>
       <c r="X463" s="3"/>
     </row>
-    <row r="464" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
       <c r="J464" s="2"/>
       <c r="W464" s="3"/>
       <c r="X464" s="3"/>
     </row>
-    <row r="465" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
       <c r="J465" s="2"/>
       <c r="W465" s="3"/>
       <c r="X465" s="3"/>
     </row>
-    <row r="466" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
       <c r="J466" s="2"/>
       <c r="W466" s="3"/>
       <c r="X466" s="3"/>
     </row>
-    <row r="467" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
       <c r="J467" s="2"/>
       <c r="W467" s="3"/>
       <c r="X467" s="3"/>
     </row>
-    <row r="468" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
       <c r="J468" s="2"/>
       <c r="W468" s="3"/>
       <c r="X468" s="3"/>
     </row>
-    <row r="469" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
       <c r="J469" s="2"/>
       <c r="W469" s="3"/>
       <c r="X469" s="3"/>
     </row>
-    <row r="470" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
       <c r="J470" s="2"/>
       <c r="W470" s="3"/>
       <c r="X470" s="3"/>
     </row>
-    <row r="471" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
       <c r="J471" s="2"/>
       <c r="W471" s="3"/>
       <c r="X471" s="3"/>
     </row>
-    <row r="472" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
       <c r="J472" s="2"/>
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
     </row>
-    <row r="473" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
       <c r="J473" s="2"/>
       <c r="W473" s="3"/>
       <c r="X473" s="3"/>
     </row>
-    <row r="474" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
       <c r="J474" s="2"/>
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
     </row>
-    <row r="475" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
       <c r="J475" s="2"/>
       <c r="W475" s="3"/>
       <c r="X475" s="3"/>
     </row>
-    <row r="476" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
       <c r="J476" s="2"/>
       <c r="W476" s="3"/>
       <c r="X476" s="3"/>
     </row>
-    <row r="477" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
       <c r="J477" s="2"/>
       <c r="W477" s="3"/>
       <c r="X477" s="3"/>
     </row>
-    <row r="478" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
       <c r="J478" s="2"/>
       <c r="W478" s="3"/>
       <c r="X478" s="3"/>
     </row>
-    <row r="479" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
       <c r="J479" s="2"/>
       <c r="W479" s="3"/>
       <c r="X479" s="3"/>
     </row>
-    <row r="480" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
       <c r="J480" s="2"/>
       <c r="W480" s="3"/>
       <c r="X480" s="3"/>
     </row>
-    <row r="481" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
       <c r="J481" s="2"/>
       <c r="W481" s="3"/>
       <c r="X481" s="3"/>
     </row>
-    <row r="482" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
       <c r="J482" s="2"/>
       <c r="W482" s="3"/>
       <c r="X482" s="3"/>
     </row>
-    <row r="483" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
       <c r="J483" s="2"/>
       <c r="W483" s="3"/>
       <c r="X483" s="3"/>
     </row>
-    <row r="484" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
       <c r="J484" s="2"/>
       <c r="W484" s="3"/>
       <c r="X484" s="3"/>
     </row>
-    <row r="485" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
       <c r="J485" s="2"/>
       <c r="W485" s="3"/>
       <c r="X485" s="3"/>
     </row>
-    <row r="486" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
       <c r="J486" s="2"/>
       <c r="W486" s="3"/>
       <c r="X486" s="3"/>
     </row>
-    <row r="487" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
       <c r="J487" s="2"/>
       <c r="W487" s="3"/>
       <c r="X487" s="3"/>
     </row>
-    <row r="488" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
       <c r="J488" s="2"/>
       <c r="W488" s="3"/>
       <c r="X488" s="3"/>
     </row>
-    <row r="489" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
       <c r="J489" s="2"/>
       <c r="W489" s="3"/>
       <c r="X489" s="3"/>
     </row>
-    <row r="490" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
       <c r="J490" s="2"/>
       <c r="W490" s="3"/>
       <c r="X490" s="3"/>
     </row>
-    <row r="491" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
       <c r="J491" s="2"/>
       <c r="W491" s="3"/>
       <c r="X491" s="3"/>
     </row>
-    <row r="492" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
       <c r="J492" s="2"/>
       <c r="W492" s="3"/>
       <c r="X492" s="3"/>
     </row>
-    <row r="493" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
       <c r="J493" s="2"/>
       <c r="W493" s="3"/>
       <c r="X493" s="3"/>
     </row>
-    <row r="494" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
       <c r="J494" s="2"/>
       <c r="W494" s="3"/>
       <c r="X494" s="3"/>
     </row>
-    <row r="495" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
       <c r="J495" s="2"/>
       <c r="W495" s="3"/>
       <c r="X495" s="3"/>
     </row>
-    <row r="496" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
       <c r="J496" s="2"/>
       <c r="W496" s="3"/>
       <c r="X496" s="3"/>
     </row>
-    <row r="497" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
       <c r="J497" s="2"/>
       <c r="W497" s="3"/>
       <c r="X497" s="3"/>
     </row>
-    <row r="498" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
       <c r="J498" s="2"/>
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
     </row>
-    <row r="499" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
       <c r="J499" s="2"/>
       <c r="W499" s="3"/>
       <c r="X499" s="3"/>
     </row>
-    <row r="500" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
       <c r="J500" s="2"/>
       <c r="W500" s="3"/>
       <c r="X500" s="3"/>
     </row>
-    <row r="501" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
       <c r="J501" s="2"/>
       <c r="W501" s="3"/>
       <c r="X501" s="3"/>
     </row>
-    <row r="502" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
       <c r="J502" s="2"/>
       <c r="W502" s="3"/>
       <c r="X502" s="3"/>
     </row>
-    <row r="503" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
       <c r="J503" s="2"/>
       <c r="W503" s="3"/>
       <c r="X503" s="3"/>
     </row>
-    <row r="504" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
       <c r="J504" s="2"/>
       <c r="W504" s="3"/>
       <c r="X504" s="3"/>
     </row>
-    <row r="505" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
       <c r="J505" s="2"/>
       <c r="W505" s="3"/>
       <c r="X505" s="3"/>
     </row>
-    <row r="506" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
       <c r="J506" s="2"/>
       <c r="W506" s="3"/>
       <c r="X506" s="3"/>
     </row>
-    <row r="507" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
       <c r="J507" s="2"/>
       <c r="W507" s="3"/>
       <c r="X507" s="3"/>
     </row>
-    <row r="508" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
       <c r="J508" s="2"/>
       <c r="W508" s="3"/>
       <c r="X508" s="3"/>
     </row>
-    <row r="509" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
       <c r="J509" s="2"/>
       <c r="W509" s="3"/>
       <c r="X509" s="3"/>
     </row>
-    <row r="510" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
       <c r="J510" s="2"/>
       <c r="W510" s="3"/>
       <c r="X510" s="3"/>
     </row>
-    <row r="511" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
       <c r="J511" s="2"/>
       <c r="W511" s="3"/>
       <c r="X511" s="3"/>
     </row>
-    <row r="512" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
       <c r="J512" s="2"/>
       <c r="W512" s="3"/>
       <c r="X512" s="3"/>
     </row>
-    <row r="513" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
       <c r="J513" s="2"/>
       <c r="W513" s="3"/>
       <c r="X513" s="3"/>
     </row>
-    <row r="514" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
       <c r="J514" s="2"/>
       <c r="W514" s="3"/>
       <c r="X514" s="3"/>
     </row>
-    <row r="515" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
       <c r="J515" s="2"/>
       <c r="W515" s="3"/>
       <c r="X515" s="3"/>
     </row>
-    <row r="516" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
       <c r="J516" s="2"/>
       <c r="W516" s="3"/>
       <c r="X516" s="3"/>
     </row>
-    <row r="517" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
       <c r="J517" s="2"/>
       <c r="W517" s="3"/>
       <c r="X517" s="3"/>
     </row>
-    <row r="518" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
       <c r="J518" s="2"/>
       <c r="W518" s="3"/>
       <c r="X518" s="3"/>
     </row>
-    <row r="519" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
       <c r="J519" s="2"/>
       <c r="W519" s="3"/>
       <c r="X519" s="3"/>
     </row>
-    <row r="520" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
       <c r="J520" s="2"/>
       <c r="W520" s="3"/>
       <c r="X520" s="3"/>
     </row>
-    <row r="521" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
       <c r="J521" s="2"/>
       <c r="W521" s="3"/>
       <c r="X521" s="3"/>
     </row>
-    <row r="522" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
       <c r="J522" s="2"/>
       <c r="W522" s="3"/>
       <c r="X522" s="3"/>
     </row>
-    <row r="523" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
       <c r="J523" s="2"/>
       <c r="W523" s="3"/>
       <c r="X523" s="3"/>
     </row>
-    <row r="524" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
       <c r="J524" s="2"/>
       <c r="W524" s="3"/>
       <c r="X524" s="3"/>
     </row>
-    <row r="525" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
       <c r="J525" s="2"/>
       <c r="W525" s="3"/>
       <c r="X525" s="3"/>
     </row>
-    <row r="526" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
       <c r="J526" s="2"/>
       <c r="W526" s="3"/>
       <c r="X526" s="3"/>
     </row>
-    <row r="527" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
       <c r="J527" s="2"/>
       <c r="W527" s="3"/>
       <c r="X527" s="3"/>
     </row>
-    <row r="528" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
       <c r="J528" s="2"/>
       <c r="W528" s="3"/>
       <c r="X528" s="3"/>
     </row>
-    <row r="529" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
       <c r="J529" s="2"/>
       <c r="W529" s="3"/>
       <c r="X529" s="3"/>
     </row>
-    <row r="530" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
       <c r="J530" s="2"/>
       <c r="W530" s="3"/>
       <c r="X530" s="3"/>
     </row>
-    <row r="531" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
       <c r="J531" s="2"/>
       <c r="W531" s="3"/>
       <c r="X531" s="3"/>
     </row>
-    <row r="532" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
       <c r="J532" s="2"/>
       <c r="W532" s="3"/>
       <c r="X532" s="3"/>
     </row>
-    <row r="533" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
       <c r="J533" s="2"/>
       <c r="W533" s="3"/>
       <c r="X533" s="3"/>
     </row>
-    <row r="534" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
       <c r="J534" s="2"/>
       <c r="W534" s="3"/>
       <c r="X534" s="3"/>
     </row>
-    <row r="535" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
       <c r="J535" s="2"/>
       <c r="W535" s="3"/>
       <c r="X535" s="3"/>
     </row>
-    <row r="536" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
       <c r="J536" s="2"/>
       <c r="W536" s="3"/>
       <c r="X536" s="3"/>
     </row>
-    <row r="537" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
       <c r="J537" s="2"/>
       <c r="W537" s="3"/>
       <c r="X537" s="3"/>
     </row>
-    <row r="538" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
       <c r="J538" s="2"/>
       <c r="W538" s="3"/>
       <c r="X538" s="3"/>
     </row>
-    <row r="539" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
       <c r="J539" s="2"/>
       <c r="W539" s="3"/>
       <c r="X539" s="3"/>
     </row>
-    <row r="540" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
       <c r="J540" s="2"/>
       <c r="W540" s="3"/>
       <c r="X540" s="3"/>
     </row>
-    <row r="541" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
       <c r="J541" s="2"/>
       <c r="W541" s="3"/>
       <c r="X541" s="3"/>
     </row>
-    <row r="542" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
       <c r="J542" s="2"/>
       <c r="W542" s="3"/>
       <c r="X542" s="3"/>
     </row>
-    <row r="543" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
       <c r="J543" s="2"/>
       <c r="W543" s="3"/>
       <c r="X543" s="3"/>
     </row>
-    <row r="544" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
       <c r="J544" s="2"/>
       <c r="W544" s="3"/>
       <c r="X544" s="3"/>
     </row>
-    <row r="545" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
       <c r="J545" s="2"/>
       <c r="W545" s="3"/>
       <c r="X545" s="3"/>
     </row>
-    <row r="546" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
       <c r="J546" s="2"/>
       <c r="W546" s="3"/>
       <c r="X546" s="3"/>
     </row>
-    <row r="547" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
       <c r="J547" s="2"/>
       <c r="W547" s="3"/>
       <c r="X547" s="3"/>
     </row>
-    <row r="548" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
       <c r="J548" s="2"/>
       <c r="W548" s="3"/>
       <c r="X548" s="3"/>
     </row>
-    <row r="549" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
       <c r="J549" s="2"/>
       <c r="W549" s="3"/>
       <c r="X549" s="3"/>
     </row>
-    <row r="550" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
       <c r="J550" s="2"/>
       <c r="W550" s="3"/>
       <c r="X550" s="3"/>
     </row>
-    <row r="551" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
       <c r="J551" s="2"/>
       <c r="W551" s="3"/>
       <c r="X551" s="3"/>
     </row>
-    <row r="552" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
       <c r="J552" s="2"/>
       <c r="W552" s="3"/>
       <c r="X552" s="3"/>
     </row>
-    <row r="553" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
       <c r="J553" s="2"/>
       <c r="W553" s="3"/>
       <c r="X553" s="3"/>
     </row>
-    <row r="554" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
       <c r="J554" s="2"/>
       <c r="W554" s="3"/>
       <c r="X554" s="3"/>
     </row>
-    <row r="555" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
       <c r="J555" s="2"/>
       <c r="W555" s="3"/>
       <c r="X555" s="3"/>
     </row>
-    <row r="556" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
       <c r="J556" s="2"/>
       <c r="W556" s="3"/>
       <c r="X556" s="3"/>
     </row>
-    <row r="557" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
       <c r="J557" s="2"/>
       <c r="W557" s="3"/>
       <c r="X557" s="3"/>
     </row>
-    <row r="558" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
       <c r="J558" s="2"/>
       <c r="W558" s="3"/>
       <c r="X558" s="3"/>
     </row>
-    <row r="559" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
       <c r="J559" s="2"/>
       <c r="W559" s="3"/>
       <c r="X559" s="3"/>
     </row>
-    <row r="560" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
       <c r="J560" s="2"/>
       <c r="W560" s="3"/>
       <c r="X560" s="3"/>
     </row>
-    <row r="561" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
       <c r="J561" s="2"/>
       <c r="W561" s="3"/>
       <c r="X561" s="3"/>
     </row>
-    <row r="562" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
       <c r="J562" s="2"/>
       <c r="W562" s="3"/>
       <c r="X562" s="3"/>
     </row>
-    <row r="563" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
       <c r="J563" s="2"/>
       <c r="W563" s="3"/>
       <c r="X563" s="3"/>
     </row>
-    <row r="564" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
       <c r="J564" s="2"/>
       <c r="W564" s="3"/>
       <c r="X564" s="3"/>
     </row>
-    <row r="565" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
       <c r="J565" s="2"/>
       <c r="W565" s="3"/>
       <c r="X565" s="3"/>
     </row>
-    <row r="566" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
       <c r="J566" s="2"/>
       <c r="W566" s="3"/>
       <c r="X566" s="3"/>
     </row>
-    <row r="567" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
       <c r="J567" s="2"/>
       <c r="W567" s="3"/>
       <c r="X567" s="3"/>
     </row>
-    <row r="568" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
       <c r="J568" s="2"/>
       <c r="W568" s="3"/>
       <c r="X568" s="3"/>
     </row>
-    <row r="569" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
       <c r="J569" s="2"/>
       <c r="W569" s="3"/>
       <c r="X569" s="3"/>
     </row>
-    <row r="570" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
       <c r="J570" s="2"/>
       <c r="W570" s="3"/>
       <c r="X570" s="3"/>
     </row>
-    <row r="571" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
       <c r="J571" s="2"/>
       <c r="W571" s="3"/>
       <c r="X571" s="3"/>
     </row>
-    <row r="572" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
       <c r="J572" s="2"/>
       <c r="W572" s="3"/>
       <c r="X572" s="3"/>
     </row>
-    <row r="573" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
       <c r="J573" s="2"/>
       <c r="W573" s="3"/>
       <c r="X573" s="3"/>
     </row>
-    <row r="574" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
       <c r="J574" s="2"/>
       <c r="W574" s="3"/>
       <c r="X574" s="3"/>
     </row>
-    <row r="575" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
       <c r="J575" s="2"/>
       <c r="W575" s="3"/>
       <c r="X575" s="3"/>
     </row>
-    <row r="576" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
       <c r="J576" s="2"/>
       <c r="W576" s="3"/>
       <c r="X576" s="3"/>
     </row>
-    <row r="577" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
       <c r="J577" s="2"/>
       <c r="W577" s="3"/>
       <c r="X577" s="3"/>
     </row>
-    <row r="578" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
       <c r="J578" s="2"/>
       <c r="W578" s="3"/>
       <c r="X578" s="3"/>
     </row>
-    <row r="579" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
       <c r="J579" s="2"/>
       <c r="W579" s="3"/>
       <c r="X579" s="3"/>
     </row>
-    <row r="580" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
       <c r="J580" s="2"/>
       <c r="W580" s="3"/>
       <c r="X580" s="3"/>
     </row>
-    <row r="581" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
       <c r="J581" s="2"/>
       <c r="W581" s="3"/>
       <c r="X581" s="3"/>
     </row>
-    <row r="582" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
       <c r="J582" s="2"/>
       <c r="W582" s="3"/>
       <c r="X582" s="3"/>
     </row>
-    <row r="583" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
       <c r="J583" s="2"/>
       <c r="W583" s="3"/>
       <c r="X583" s="3"/>
     </row>
-    <row r="584" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
       <c r="J584" s="2"/>
       <c r="W584" s="3"/>
       <c r="X584" s="3"/>
     </row>
-    <row r="585" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
       <c r="J585" s="2"/>
       <c r="W585" s="3"/>
       <c r="X585" s="3"/>
     </row>
-    <row r="586" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
       <c r="J586" s="2"/>
       <c r="W586" s="3"/>
       <c r="X586" s="3"/>
     </row>
-    <row r="587" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
       <c r="J587" s="2"/>
       <c r="W587" s="3"/>
       <c r="X587" s="3"/>
     </row>
-    <row r="588" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
       <c r="J588" s="2"/>
       <c r="W588" s="3"/>
       <c r="X588" s="3"/>
     </row>
-    <row r="589" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
       <c r="J589" s="2"/>
       <c r="W589" s="3"/>
       <c r="X589" s="3"/>
     </row>
-    <row r="590" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
       <c r="J590" s="2"/>
       <c r="W590" s="3"/>
       <c r="X590" s="3"/>
     </row>
-    <row r="591" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
       <c r="J591" s="2"/>
       <c r="W591" s="3"/>
       <c r="X591" s="3"/>
     </row>
-    <row r="592" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
       <c r="J592" s="2"/>
       <c r="W592" s="3"/>
       <c r="X592" s="3"/>
     </row>
-    <row r="593" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
       <c r="J593" s="2"/>
       <c r="W593" s="3"/>
       <c r="X593" s="3"/>
     </row>
-    <row r="594" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
       <c r="J594" s="2"/>
       <c r="W594" s="3"/>
       <c r="X594" s="3"/>
     </row>
-    <row r="595" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
       <c r="J595" s="2"/>
       <c r="W595" s="3"/>
       <c r="X595" s="3"/>
     </row>
-    <row r="596" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
       <c r="J596" s="2"/>
       <c r="W596" s="3"/>
       <c r="X596" s="3"/>
     </row>
-    <row r="597" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
       <c r="J597" s="2"/>
       <c r="W597" s="3"/>
       <c r="X597" s="3"/>
     </row>
-    <row r="598" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
       <c r="J598" s="2"/>
       <c r="W598" s="3"/>
       <c r="X598" s="3"/>
     </row>
-    <row r="599" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
       <c r="J599" s="2"/>
       <c r="W599" s="3"/>
       <c r="X599" s="3"/>
     </row>
-    <row r="600" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
       <c r="J600" s="2"/>
       <c r="W600" s="3"/>
       <c r="X600" s="3"/>
     </row>
-    <row r="601" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
       <c r="J601" s="2"/>
       <c r="W601" s="3"/>
       <c r="X601" s="3"/>
     </row>
-    <row r="602" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
       <c r="J602" s="2"/>
       <c r="W602" s="3"/>
       <c r="X602" s="3"/>
     </row>
-    <row r="603" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
       <c r="J603" s="2"/>
       <c r="W603" s="3"/>
       <c r="X603" s="3"/>
     </row>
-    <row r="604" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
       <c r="J604" s="2"/>
       <c r="W604" s="3"/>
       <c r="X604" s="3"/>
     </row>
-    <row r="605" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
       <c r="J605" s="2"/>
       <c r="W605" s="3"/>
       <c r="X605" s="3"/>
     </row>
-    <row r="606" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
       <c r="J606" s="2"/>
       <c r="W606" s="3"/>
       <c r="X606" s="3"/>
     </row>
-    <row r="607" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
       <c r="J607" s="2"/>
       <c r="W607" s="3"/>
       <c r="X607" s="3"/>
     </row>
-    <row r="608" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
       <c r="J608" s="2"/>
       <c r="W608" s="3"/>
       <c r="X608" s="3"/>
     </row>
-    <row r="609" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
       <c r="J609" s="2"/>
       <c r="W609" s="3"/>
       <c r="X609" s="3"/>
     </row>
-    <row r="610" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
       <c r="J610" s="2"/>
       <c r="W610" s="3"/>
       <c r="X610" s="3"/>
     </row>
-    <row r="611" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
       <c r="J611" s="2"/>
       <c r="W611" s="3"/>
       <c r="X611" s="3"/>
     </row>
-    <row r="612" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
       <c r="J612" s="2"/>
       <c r="W612" s="3"/>
       <c r="X612" s="3"/>
     </row>
-    <row r="613" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
       <c r="J613" s="2"/>
       <c r="W613" s="3"/>
       <c r="X613" s="3"/>
     </row>
-    <row r="614" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
       <c r="J614" s="2"/>
       <c r="W614" s="3"/>
       <c r="X614" s="3"/>
     </row>
-    <row r="615" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
       <c r="J615" s="2"/>
       <c r="W615" s="3"/>
       <c r="X615" s="3"/>
     </row>
-    <row r="616" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
       <c r="J616" s="2"/>
       <c r="W616" s="3"/>
       <c r="X616" s="3"/>
     </row>
-    <row r="617" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
       <c r="J617" s="2"/>
       <c r="W617" s="3"/>
       <c r="X617" s="3"/>
     </row>
-    <row r="618" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
       <c r="J618" s="2"/>
       <c r="W618" s="3"/>
       <c r="X618" s="3"/>
     </row>
-    <row r="619" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
       <c r="J619" s="2"/>
       <c r="W619" s="3"/>
       <c r="X619" s="3"/>
     </row>
-    <row r="620" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
       <c r="J620" s="2"/>
       <c r="W620" s="3"/>
       <c r="X620" s="3"/>
     </row>
-    <row r="621" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
       <c r="J621" s="2"/>
       <c r="W621" s="3"/>
       <c r="X621" s="3"/>
     </row>
-    <row r="622" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
       <c r="J622" s="2"/>
       <c r="W622" s="3"/>
       <c r="X622" s="3"/>
     </row>
-    <row r="623" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
       <c r="J623" s="2"/>
       <c r="W623" s="3"/>
       <c r="X623" s="3"/>
     </row>
-    <row r="624" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
       <c r="J624" s="2"/>
       <c r="W624" s="3"/>
       <c r="X624" s="3"/>
     </row>
-    <row r="625" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
       <c r="J625" s="2"/>
       <c r="W625" s="3"/>
       <c r="X625" s="3"/>
     </row>
-    <row r="626" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
       <c r="J626" s="2"/>
       <c r="W626" s="3"/>
       <c r="X626" s="3"/>
     </row>
-    <row r="627" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
       <c r="J627" s="2"/>
       <c r="W627" s="3"/>
       <c r="X627" s="3"/>
     </row>
-    <row r="628" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
       <c r="J628" s="2"/>
       <c r="W628" s="3"/>
       <c r="X628" s="3"/>
     </row>
-    <row r="629" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
       <c r="J629" s="2"/>
       <c r="W629" s="3"/>
       <c r="X629" s="3"/>
     </row>
-    <row r="630" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
       <c r="J630" s="2"/>
       <c r="W630" s="3"/>
       <c r="X630" s="3"/>
     </row>
-    <row r="631" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
       <c r="J631" s="2"/>
       <c r="W631" s="3"/>
       <c r="X631" s="3"/>
     </row>
-    <row r="632" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
       <c r="J632" s="2"/>
       <c r="W632" s="3"/>
       <c r="X632" s="3"/>
     </row>
-    <row r="633" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
       <c r="J633" s="2"/>
       <c r="W633" s="3"/>
       <c r="X633" s="3"/>
     </row>
-    <row r="634" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
       <c r="J634" s="2"/>
       <c r="W634" s="3"/>
       <c r="X634" s="3"/>
     </row>
-    <row r="635" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
       <c r="J635" s="2"/>
       <c r="W635" s="3"/>
       <c r="X635" s="3"/>
     </row>
-    <row r="636" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
       <c r="J636" s="2"/>
       <c r="W636" s="3"/>
       <c r="X636" s="3"/>
     </row>
-    <row r="637" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
       <c r="J637" s="2"/>
       <c r="W637" s="3"/>
       <c r="X637" s="3"/>
     </row>
-    <row r="638" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
       <c r="J638" s="2"/>
       <c r="W638" s="3"/>
       <c r="X638" s="3"/>
     </row>
-    <row r="639" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
       <c r="J639" s="2"/>
       <c r="W639" s="3"/>
       <c r="X639" s="3"/>
     </row>
-    <row r="640" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
       <c r="J640" s="2"/>
       <c r="W640" s="3"/>
       <c r="X640" s="3"/>
     </row>
-    <row r="641" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
       <c r="J641" s="2"/>
       <c r="W641" s="3"/>
       <c r="X641" s="3"/>
     </row>
-    <row r="642" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
       <c r="J642" s="2"/>
       <c r="W642" s="3"/>
       <c r="X642" s="3"/>
     </row>
-    <row r="643" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
       <c r="J643" s="2"/>
       <c r="W643" s="3"/>
       <c r="X643" s="3"/>
     </row>
-    <row r="644" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
       <c r="J644" s="2"/>
       <c r="W644" s="3"/>
       <c r="X644" s="3"/>
     </row>
-    <row r="645" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
       <c r="J645" s="2"/>
       <c r="W645" s="3"/>
       <c r="X645" s="3"/>
     </row>
-    <row r="646" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
       <c r="J646" s="2"/>
       <c r="W646" s="3"/>
       <c r="X646" s="3"/>
     </row>
-    <row r="647" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
       <c r="J647" s="2"/>
       <c r="W647" s="3"/>
       <c r="X647" s="3"/>
     </row>
-    <row r="648" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
       <c r="J648" s="2"/>
       <c r="W648" s="3"/>
       <c r="X648" s="3"/>
     </row>
-    <row r="649" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
       <c r="J649" s="2"/>
       <c r="W649" s="3"/>
       <c r="X649" s="3"/>
     </row>
-    <row r="650" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
       <c r="J650" s="2"/>
       <c r="W650" s="3"/>
       <c r="X650" s="3"/>
     </row>
-    <row r="651" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
       <c r="J651" s="2"/>
       <c r="W651" s="3"/>
       <c r="X651" s="3"/>
     </row>
-    <row r="652" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
       <c r="J652" s="2"/>
       <c r="W652" s="3"/>
       <c r="X652" s="3"/>
     </row>
-    <row r="653" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
       <c r="J653" s="2"/>
       <c r="W653" s="3"/>
       <c r="X653" s="3"/>
     </row>
-    <row r="654" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
       <c r="J654" s="2"/>
       <c r="W654" s="3"/>
       <c r="X654" s="3"/>
     </row>
-    <row r="655" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
       <c r="J655" s="2"/>
       <c r="W655" s="3"/>
       <c r="X655" s="3"/>
     </row>
-    <row r="656" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
       <c r="J656" s="2"/>
       <c r="W656" s="3"/>
       <c r="X656" s="3"/>
     </row>
-    <row r="657" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
       <c r="J657" s="2"/>
       <c r="W657" s="3"/>
       <c r="X657" s="3"/>
     </row>
-    <row r="658" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
       <c r="J658" s="2"/>
       <c r="W658" s="3"/>
       <c r="X658" s="3"/>
     </row>
-    <row r="659" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
       <c r="J659" s="2"/>
       <c r="W659" s="3"/>
       <c r="X659" s="3"/>
     </row>
-    <row r="660" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
       <c r="J660" s="2"/>
       <c r="W660" s="3"/>
       <c r="X660" s="3"/>
     </row>
-    <row r="661" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
       <c r="J661" s="2"/>
       <c r="W661" s="3"/>
       <c r="X661" s="3"/>
     </row>
-    <row r="662" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
       <c r="J662" s="2"/>
       <c r="W662" s="3"/>
       <c r="X662" s="3"/>
     </row>
-    <row r="663" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
       <c r="J663" s="2"/>
       <c r="W663" s="3"/>
       <c r="X663" s="3"/>
     </row>
-    <row r="664" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
       <c r="J664" s="2"/>
       <c r="W664" s="3"/>
       <c r="X664" s="3"/>
     </row>
-    <row r="665" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
       <c r="J665" s="2"/>
       <c r="W665" s="3"/>
       <c r="X665" s="3"/>
     </row>
-    <row r="666" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
       <c r="J666" s="2"/>
       <c r="W666" s="3"/>
       <c r="X666" s="3"/>
     </row>
-    <row r="667" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
       <c r="J667" s="2"/>
       <c r="W667" s="3"/>
       <c r="X667" s="3"/>
     </row>
-    <row r="668" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
       <c r="J668" s="2"/>
       <c r="W668" s="3"/>
       <c r="X668" s="3"/>
     </row>
-    <row r="669" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
       <c r="J669" s="2"/>
       <c r="W669" s="3"/>
       <c r="X669" s="3"/>
     </row>
-    <row r="670" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
       <c r="J670" s="2"/>
       <c r="W670" s="3"/>
       <c r="X670" s="3"/>
     </row>
-    <row r="671" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
       <c r="J671" s="2"/>
       <c r="W671" s="3"/>
       <c r="X671" s="3"/>
     </row>
-    <row r="672" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
       <c r="J672" s="2"/>
       <c r="W672" s="3"/>
       <c r="X672" s="3"/>
     </row>
-    <row r="673" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
       <c r="J673" s="2"/>
       <c r="W673" s="3"/>
       <c r="X673" s="3"/>
     </row>
-    <row r="674" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
       <c r="J674" s="2"/>
       <c r="W674" s="3"/>
       <c r="X674" s="3"/>
     </row>
-    <row r="675" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
       <c r="J675" s="2"/>
       <c r="W675" s="3"/>
       <c r="X675" s="3"/>
     </row>
-    <row r="676" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
       <c r="J676" s="2"/>
       <c r="W676" s="3"/>
       <c r="X676" s="3"/>
     </row>
-    <row r="677" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
       <c r="J677" s="2"/>
       <c r="W677" s="3"/>
       <c r="X677" s="3"/>
     </row>
-    <row r="678" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
       <c r="J678" s="2"/>
       <c r="W678" s="3"/>
       <c r="X678" s="3"/>
     </row>
-    <row r="679" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
       <c r="J679" s="2"/>
       <c r="W679" s="3"/>
       <c r="X679" s="3"/>
     </row>
-    <row r="680" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
       <c r="J680" s="2"/>
       <c r="W680" s="3"/>
       <c r="X680" s="3"/>
     </row>
-    <row r="681" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
       <c r="J681" s="2"/>
       <c r="W681" s="3"/>
       <c r="X681" s="3"/>
     </row>
-    <row r="682" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
       <c r="J682" s="2"/>
       <c r="W682" s="3"/>
       <c r="X682" s="3"/>
     </row>
-    <row r="683" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
       <c r="J683" s="2"/>
       <c r="W683" s="3"/>
       <c r="X683" s="3"/>
     </row>
-    <row r="684" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
       <c r="J684" s="2"/>
       <c r="W684" s="3"/>
       <c r="X684" s="3"/>
     </row>
-    <row r="685" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
       <c r="J685" s="2"/>
       <c r="W685" s="3"/>
       <c r="X685" s="3"/>
     </row>
-    <row r="686" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
       <c r="J686" s="2"/>
       <c r="W686" s="3"/>
       <c r="X686" s="3"/>
     </row>
-    <row r="687" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
       <c r="J687" s="2"/>
       <c r="W687" s="3"/>
       <c r="X687" s="3"/>
     </row>
-    <row r="688" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
       <c r="J688" s="2"/>
       <c r="W688" s="3"/>
       <c r="X688" s="3"/>
     </row>
-    <row r="689" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
       <c r="J689" s="2"/>
       <c r="W689" s="3"/>
       <c r="X689" s="3"/>
     </row>
-    <row r="690" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
       <c r="J690" s="2"/>
       <c r="W690" s="3"/>
       <c r="X690" s="3"/>
     </row>
-    <row r="691" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
       <c r="J691" s="2"/>
       <c r="W691" s="3"/>
       <c r="X691" s="3"/>
     </row>
-    <row r="692" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
       <c r="J692" s="2"/>
       <c r="W692" s="3"/>
       <c r="X692" s="3"/>
     </row>
-    <row r="693" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
       <c r="J693" s="2"/>
       <c r="W693" s="3"/>
       <c r="X693" s="3"/>
     </row>
-    <row r="694" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
       <c r="J694" s="2"/>
       <c r="W694" s="3"/>
       <c r="X694" s="3"/>
     </row>
-    <row r="695" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
       <c r="J695" s="2"/>
       <c r="W695" s="3"/>
       <c r="X695" s="3"/>
     </row>
-    <row r="696" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
       <c r="J696" s="2"/>
       <c r="W696" s="3"/>
       <c r="X696" s="3"/>
     </row>
-    <row r="697" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
       <c r="J697" s="2"/>
       <c r="W697" s="3"/>
       <c r="X697" s="3"/>
     </row>
-    <row r="698" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
       <c r="J698" s="2"/>
       <c r="W698" s="3"/>
       <c r="X698" s="3"/>
     </row>
-    <row r="699" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
       <c r="J699" s="2"/>
       <c r="W699" s="3"/>
       <c r="X699" s="3"/>
     </row>
-    <row r="700" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
       <c r="J700" s="2"/>
       <c r="W700" s="3"/>
       <c r="X700" s="3"/>
     </row>
-    <row r="701" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
       <c r="J701" s="2"/>
       <c r="W701" s="3"/>
       <c r="X701" s="3"/>
     </row>
-    <row r="702" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
       <c r="J702" s="2"/>
       <c r="W702" s="3"/>
       <c r="X702" s="3"/>
     </row>
-    <row r="703" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
       <c r="J703" s="2"/>
       <c r="W703" s="3"/>
       <c r="X703" s="3"/>
     </row>
-    <row r="704" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
       <c r="J704" s="2"/>
       <c r="W704" s="3"/>
       <c r="X704" s="3"/>
     </row>
-    <row r="705" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="2"/>
       <c r="J705" s="2"/>
       <c r="W705" s="3"/>
       <c r="X705" s="3"/>
     </row>
-    <row r="706" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="2"/>
       <c r="J706" s="2"/>
       <c r="W706" s="3"/>
       <c r="X706" s="3"/>
     </row>
-    <row r="707" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="2"/>
       <c r="J707" s="2"/>
       <c r="W707" s="3"/>
       <c r="X707" s="3"/>
     </row>
-    <row r="708" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="2"/>
       <c r="J708" s="2"/>
       <c r="W708" s="3"/>
       <c r="X708" s="3"/>
     </row>
-    <row r="709" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="2"/>
       <c r="J709" s="2"/>
       <c r="W709" s="3"/>
       <c r="X709" s="3"/>
     </row>
-    <row r="710" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="2"/>
       <c r="J710" s="2"/>
       <c r="W710" s="3"/>
       <c r="X710" s="3"/>
     </row>
-    <row r="711" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="2"/>
       <c r="J711" s="2"/>
       <c r="W711" s="3"/>
       <c r="X711" s="3"/>
     </row>
-    <row r="712" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="2"/>
       <c r="J712" s="2"/>
       <c r="W712" s="3"/>
       <c r="X712" s="3"/>
     </row>
-    <row r="713" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="2"/>
       <c r="J713" s="2"/>
       <c r="W713" s="3"/>
       <c r="X713" s="3"/>
     </row>
-    <row r="714" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="2"/>
       <c r="J714" s="2"/>
       <c r="W714" s="3"/>
       <c r="X714" s="3"/>
     </row>
-    <row r="715" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="2"/>
       <c r="J715" s="2"/>
       <c r="W715" s="3"/>
       <c r="X715" s="3"/>
     </row>
-    <row r="716" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="2"/>
       <c r="J716" s="2"/>
       <c r="W716" s="3"/>
       <c r="X716" s="3"/>
     </row>
-    <row r="717" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="2"/>
       <c r="J717" s="2"/>
       <c r="W717" s="3"/>
       <c r="X717" s="3"/>
     </row>
-    <row r="718" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="2"/>
       <c r="J718" s="2"/>
       <c r="W718" s="3"/>
       <c r="X718" s="3"/>
     </row>
-    <row r="719" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="2"/>
       <c r="J719" s="2"/>
       <c r="W719" s="3"/>
       <c r="X719" s="3"/>
     </row>
-    <row r="720" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="2"/>
       <c r="J720" s="2"/>
       <c r="W720" s="3"/>
       <c r="X720" s="3"/>
     </row>
-    <row r="721" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="2"/>
       <c r="J721" s="2"/>
       <c r="W721" s="3"/>
       <c r="X721" s="3"/>
     </row>
-    <row r="722" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="2"/>
       <c r="J722" s="2"/>
       <c r="W722" s="3"/>
       <c r="X722" s="3"/>
     </row>
-    <row r="723" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="2"/>
       <c r="J723" s="2"/>
       <c r="W723" s="3"/>
       <c r="X723" s="3"/>
     </row>
-    <row r="724" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="2"/>
       <c r="J724" s="2"/>
       <c r="W724" s="3"/>
       <c r="X724" s="3"/>
     </row>
-    <row r="725" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="2"/>
       <c r="J725" s="2"/>
       <c r="W725" s="3"/>
       <c r="X725" s="3"/>
     </row>
-    <row r="726" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="2"/>
       <c r="J726" s="2"/>
       <c r="W726" s="3"/>
       <c r="X726" s="3"/>
     </row>
-    <row r="727" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="2"/>
       <c r="J727" s="2"/>
       <c r="W727" s="3"/>
       <c r="X727" s="3"/>
     </row>
-    <row r="728" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="2"/>
       <c r="J728" s="2"/>
       <c r="W728" s="3"/>
       <c r="X728" s="3"/>
     </row>
-    <row r="729" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="2"/>
       <c r="J729" s="2"/>
       <c r="W729" s="3"/>
       <c r="X729" s="3"/>
     </row>
-    <row r="730" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="2"/>
       <c r="J730" s="2"/>
       <c r="W730" s="3"/>
       <c r="X730" s="3"/>
     </row>
-    <row r="731" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="2"/>
       <c r="J731" s="2"/>
       <c r="W731" s="3"/>
       <c r="X731" s="3"/>
     </row>
-    <row r="732" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="2"/>
       <c r="J732" s="2"/>
       <c r="W732" s="3"/>
       <c r="X732" s="3"/>
     </row>
-    <row r="733" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="2"/>
       <c r="J733" s="2"/>
       <c r="W733" s="3"/>
       <c r="X733" s="3"/>
     </row>
-    <row r="734" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="2"/>
       <c r="J734" s="2"/>
       <c r="W734" s="3"/>
       <c r="X734" s="3"/>
     </row>
-    <row r="735" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="2"/>
       <c r="J735" s="2"/>
       <c r="W735" s="3"/>
       <c r="X735" s="3"/>
     </row>
-    <row r="736" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="2"/>
       <c r="J736" s="2"/>
       <c r="W736" s="3"/>
       <c r="X736" s="3"/>
     </row>
-    <row r="737" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="2"/>
       <c r="J737" s="2"/>
       <c r="W737" s="3"/>
       <c r="X737" s="3"/>
     </row>
-    <row r="738" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="2"/>
       <c r="J738" s="2"/>
       <c r="W738" s="3"/>
       <c r="X738" s="3"/>
     </row>
-    <row r="739" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="2"/>
       <c r="J739" s="2"/>
       <c r="W739" s="3"/>
       <c r="X739" s="3"/>
     </row>
-    <row r="740" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="2"/>
       <c r="J740" s="2"/>
       <c r="W740" s="3"/>
       <c r="X740" s="3"/>
     </row>
-    <row r="741" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="2"/>
       <c r="J741" s="2"/>
       <c r="W741" s="3"/>
       <c r="X741" s="3"/>
     </row>
-    <row r="742" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="2"/>
       <c r="J742" s="2"/>
       <c r="W742" s="3"/>
       <c r="X742" s="3"/>
     </row>
-    <row r="743" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="2"/>
       <c r="J743" s="2"/>
       <c r="W743" s="3"/>
       <c r="X743" s="3"/>
     </row>
-    <row r="744" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="2"/>
       <c r="J744" s="2"/>
       <c r="W744" s="3"/>
       <c r="X744" s="3"/>
     </row>
-    <row r="745" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="2"/>
       <c r="J745" s="2"/>
       <c r="W745" s="3"/>
       <c r="X745" s="3"/>
     </row>
-    <row r="746" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="2"/>
       <c r="J746" s="2"/>
       <c r="W746" s="3"/>
       <c r="X746" s="3"/>
     </row>
-    <row r="747" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="2"/>
       <c r="J747" s="2"/>
       <c r="W747" s="3"/>
       <c r="X747" s="3"/>
     </row>
-    <row r="748" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="2"/>
       <c r="J748" s="2"/>
       <c r="W748" s="3"/>
       <c r="X748" s="3"/>
     </row>
-    <row r="749" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="2"/>
       <c r="J749" s="2"/>
       <c r="W749" s="3"/>
       <c r="X749" s="3"/>
     </row>
-    <row r="750" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="2"/>
       <c r="J750" s="2"/>
       <c r="W750" s="3"/>
       <c r="X750" s="3"/>
     </row>
-    <row r="751" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="2"/>
       <c r="J751" s="2"/>
       <c r="W751" s="3"/>
       <c r="X751" s="3"/>
     </row>
-    <row r="752" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="2"/>
       <c r="J752" s="2"/>
       <c r="W752" s="3"/>
       <c r="X752" s="3"/>
     </row>
-    <row r="753" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="2"/>
       <c r="J753" s="2"/>
       <c r="W753" s="3"/>
       <c r="X753" s="3"/>
     </row>
-    <row r="754" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="2"/>
       <c r="J754" s="2"/>
       <c r="W754" s="3"/>
       <c r="X754" s="3"/>
     </row>
-    <row r="755" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="2"/>
       <c r="J755" s="2"/>
       <c r="W755" s="3"/>
       <c r="X755" s="3"/>
     </row>
-    <row r="756" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="2"/>
       <c r="J756" s="2"/>
       <c r="W756" s="3"/>
       <c r="X756" s="3"/>
     </row>
-    <row r="757" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="2"/>
       <c r="J757" s="2"/>
       <c r="W757" s="3"/>
       <c r="X757" s="3"/>
     </row>
-    <row r="758" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="2"/>
       <c r="J758" s="2"/>
       <c r="W758" s="3"/>
       <c r="X758" s="3"/>
     </row>
-    <row r="759" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="2"/>
       <c r="J759" s="2"/>
       <c r="W759" s="3"/>
       <c r="X759" s="3"/>
     </row>
-    <row r="760" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="2"/>
       <c r="J760" s="2"/>
       <c r="W760" s="3"/>
       <c r="X760" s="3"/>
     </row>
-    <row r="761" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="2"/>
       <c r="J761" s="2"/>
       <c r="W761" s="3"/>
       <c r="X761" s="3"/>
     </row>
-    <row r="762" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="2"/>
       <c r="J762" s="2"/>
       <c r="W762" s="3"/>
       <c r="X762" s="3"/>
     </row>
-    <row r="763" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="2"/>
       <c r="J763" s="2"/>
       <c r="W763" s="3"/>
       <c r="X763" s="3"/>
     </row>
-    <row r="764" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="2"/>
       <c r="J764" s="2"/>
       <c r="W764" s="3"/>
       <c r="X764" s="3"/>
     </row>
-    <row r="765" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="2"/>
       <c r="J765" s="2"/>
       <c r="W765" s="3"/>
       <c r="X765" s="3"/>
     </row>
-    <row r="766" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="2"/>
       <c r="J766" s="2"/>
       <c r="W766" s="3"/>
       <c r="X766" s="3"/>
     </row>
-    <row r="767" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="2"/>
       <c r="J767" s="2"/>
       <c r="W767" s="3"/>
       <c r="X767" s="3"/>
     </row>
-    <row r="768" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="2"/>
       <c r="J768" s="2"/>
       <c r="W768" s="3"/>
       <c r="X768" s="3"/>
     </row>
-    <row r="769" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="2"/>
       <c r="J769" s="2"/>
       <c r="W769" s="3"/>
       <c r="X769" s="3"/>
     </row>
-    <row r="770" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="2"/>
       <c r="J770" s="2"/>
       <c r="W770" s="3"/>
       <c r="X770" s="3"/>
     </row>
-    <row r="771" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="2"/>
       <c r="J771" s="2"/>
       <c r="W771" s="3"/>
       <c r="X771" s="3"/>
     </row>
-    <row r="772" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="2"/>
       <c r="J772" s="2"/>
       <c r="W772" s="3"/>
       <c r="X772" s="3"/>
     </row>
-    <row r="773" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="2"/>
       <c r="J773" s="2"/>
       <c r="W773" s="3"/>
       <c r="X773" s="3"/>
     </row>
-    <row r="774" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="2"/>
       <c r="J774" s="2"/>
       <c r="W774" s="3"/>
       <c r="X774" s="3"/>
     </row>
-    <row r="775" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="2"/>
       <c r="J775" s="2"/>
       <c r="W775" s="3"/>
       <c r="X775" s="3"/>
     </row>
-    <row r="776" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="2"/>
       <c r="J776" s="2"/>
       <c r="W776" s="3"/>
       <c r="X776" s="3"/>
     </row>
-    <row r="777" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="2"/>
       <c r="J777" s="2"/>
       <c r="W777" s="3"/>
       <c r="X777" s="3"/>
     </row>
-    <row r="778" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="2"/>
       <c r="J778" s="2"/>
       <c r="W778" s="3"/>
       <c r="X778" s="3"/>
     </row>
-    <row r="779" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="2"/>
       <c r="J779" s="2"/>
       <c r="W779" s="3"/>
       <c r="X779" s="3"/>
     </row>
-    <row r="780" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="2"/>
       <c r="J780" s="2"/>
       <c r="W780" s="3"/>
       <c r="X780" s="3"/>
     </row>
-    <row r="781" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="2"/>
       <c r="J781" s="2"/>
       <c r="W781" s="3"/>
       <c r="X781" s="3"/>
     </row>
-    <row r="782" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="2"/>
       <c r="J782" s="2"/>
       <c r="W782" s="3"/>
       <c r="X782" s="3"/>
     </row>
-    <row r="783" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="2"/>
       <c r="J783" s="2"/>
       <c r="W783" s="3"/>
       <c r="X783" s="3"/>
     </row>
-    <row r="784" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="2"/>
       <c r="J784" s="2"/>
       <c r="W784" s="3"/>
       <c r="X784" s="3"/>
     </row>
-    <row r="785" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="2"/>
       <c r="J785" s="2"/>
       <c r="W785" s="3"/>
       <c r="X785" s="3"/>
     </row>
-    <row r="786" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="2"/>
       <c r="J786" s="2"/>
       <c r="W786" s="3"/>
       <c r="X786" s="3"/>
     </row>
-    <row r="787" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="2"/>
       <c r="J787" s="2"/>
       <c r="W787" s="3"/>
       <c r="X787" s="3"/>
     </row>
-    <row r="788" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="2"/>
       <c r="J788" s="2"/>
       <c r="W788" s="3"/>
       <c r="X788" s="3"/>
     </row>
-    <row r="789" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="2"/>
       <c r="J789" s="2"/>
       <c r="W789" s="3"/>
       <c r="X789" s="3"/>
     </row>
-    <row r="790" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="2"/>
       <c r="J790" s="2"/>
       <c r="W790" s="3"/>
       <c r="X790" s="3"/>
     </row>
-    <row r="791" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="2"/>
       <c r="J791" s="2"/>
       <c r="W791" s="3"/>
       <c r="X791" s="3"/>
     </row>
-    <row r="792" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="2"/>
       <c r="J792" s="2"/>
       <c r="W792" s="3"/>
       <c r="X792" s="3"/>
     </row>
-    <row r="793" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="2"/>
       <c r="J793" s="2"/>
       <c r="W793" s="3"/>
       <c r="X793" s="3"/>
     </row>
-    <row r="794" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="2"/>
       <c r="J794" s="2"/>
       <c r="W794" s="3"/>
       <c r="X794" s="3"/>
     </row>
-    <row r="795" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="2"/>
       <c r="J795" s="2"/>
       <c r="W795" s="3"/>
       <c r="X795" s="3"/>
     </row>
-    <row r="796" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="2"/>
       <c r="J796" s="2"/>
       <c r="W796" s="3"/>
       <c r="X796" s="3"/>
     </row>
-    <row r="797" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="2"/>
       <c r="J797" s="2"/>
       <c r="W797" s="3"/>
       <c r="X797" s="3"/>
     </row>
-    <row r="798" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="2"/>
       <c r="J798" s="2"/>
       <c r="W798" s="3"/>
       <c r="X798" s="3"/>
     </row>
-    <row r="799" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="2"/>
       <c r="J799" s="2"/>
       <c r="W799" s="3"/>
       <c r="X799" s="3"/>
     </row>
-    <row r="800" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="2"/>
       <c r="J800" s="2"/>
       <c r="W800" s="3"/>
       <c r="X800" s="3"/>
     </row>
-    <row r="801" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="2"/>
       <c r="J801" s="2"/>
       <c r="W801" s="3"/>
       <c r="X801" s="3"/>
     </row>
-    <row r="802" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="2"/>
       <c r="J802" s="2"/>
       <c r="W802" s="3"/>
       <c r="X802" s="3"/>
     </row>
-    <row r="803" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="2"/>
       <c r="J803" s="2"/>
       <c r="W803" s="3"/>
       <c r="X803" s="3"/>
     </row>
-    <row r="804" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="2"/>
       <c r="J804" s="2"/>
       <c r="W804" s="3"/>
       <c r="X804" s="3"/>
     </row>
-    <row r="805" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="2"/>
       <c r="J805" s="2"/>
       <c r="W805" s="3"/>
       <c r="X805" s="3"/>
     </row>
-    <row r="806" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="2"/>
       <c r="J806" s="2"/>
       <c r="W806" s="3"/>
       <c r="X806" s="3"/>
     </row>
-    <row r="807" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="2"/>
       <c r="J807" s="2"/>
       <c r="W807" s="3"/>
       <c r="X807" s="3"/>
     </row>
-    <row r="808" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="2"/>
       <c r="J808" s="2"/>
       <c r="W808" s="3"/>
       <c r="X808" s="3"/>
     </row>
-    <row r="809" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="2"/>
       <c r="J809" s="2"/>
       <c r="W809" s="3"/>
       <c r="X809" s="3"/>
     </row>
-    <row r="810" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="2"/>
       <c r="J810" s="2"/>
       <c r="W810" s="3"/>
       <c r="X810" s="3"/>
     </row>
-    <row r="811" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="2"/>
       <c r="J811" s="2"/>
       <c r="W811" s="3"/>
       <c r="X811" s="3"/>
     </row>
-    <row r="812" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="2"/>
       <c r="J812" s="2"/>
       <c r="W812" s="3"/>
       <c r="X812" s="3"/>
     </row>
-    <row r="813" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="2"/>
       <c r="J813" s="2"/>
       <c r="W813" s="3"/>
       <c r="X813" s="3"/>
     </row>
-    <row r="814" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="2"/>
       <c r="J814" s="2"/>
       <c r="W814" s="3"/>
       <c r="X814" s="3"/>
     </row>
-    <row r="815" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="2"/>
       <c r="J815" s="2"/>
       <c r="W815" s="3"/>
       <c r="X815" s="3"/>
     </row>
-    <row r="816" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="2"/>
       <c r="J816" s="2"/>
       <c r="W816" s="3"/>
       <c r="X816" s="3"/>
     </row>
-    <row r="817" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="2"/>
       <c r="J817" s="2"/>
       <c r="W817" s="3"/>
       <c r="X817" s="3"/>
     </row>
-    <row r="818" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="2"/>
       <c r="J818" s="2"/>
       <c r="W818" s="3"/>
       <c r="X818" s="3"/>
     </row>
-    <row r="819" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="2"/>
       <c r="J819" s="2"/>
       <c r="W819" s="3"/>
       <c r="X819" s="3"/>
     </row>
-    <row r="820" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="2"/>
       <c r="J820" s="2"/>
       <c r="W820" s="3"/>
       <c r="X820" s="3"/>
     </row>
-    <row r="821" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="2"/>
       <c r="J821" s="2"/>
       <c r="W821" s="3"/>
       <c r="X821" s="3"/>
     </row>
-    <row r="822" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="2"/>
       <c r="J822" s="2"/>
       <c r="W822" s="3"/>
       <c r="X822" s="3"/>
     </row>
-    <row r="823" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="2"/>
       <c r="J823" s="2"/>
       <c r="W823" s="3"/>
       <c r="X823" s="3"/>
     </row>
-    <row r="824" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="2"/>
       <c r="J824" s="2"/>
       <c r="W824" s="3"/>
       <c r="X824" s="3"/>
     </row>
-    <row r="825" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="2"/>
       <c r="J825" s="2"/>
       <c r="W825" s="3"/>
       <c r="X825" s="3"/>
     </row>
-    <row r="826" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="2"/>
       <c r="J826" s="2"/>
       <c r="W826" s="3"/>
       <c r="X826" s="3"/>
     </row>
-    <row r="827" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="2"/>
       <c r="J827" s="2"/>
       <c r="W827" s="3"/>
       <c r="X827" s="3"/>
     </row>
-    <row r="828" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="2"/>
       <c r="J828" s="2"/>
       <c r="W828" s="3"/>
       <c r="X828" s="3"/>
     </row>
-    <row r="829" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="2"/>
       <c r="J829" s="2"/>
       <c r="W829" s="3"/>
       <c r="X829" s="3"/>
     </row>
-    <row r="830" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="2"/>
       <c r="J830" s="2"/>
       <c r="W830" s="3"/>
       <c r="X830" s="3"/>
     </row>
-    <row r="831" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="2"/>
       <c r="J831" s="2"/>
       <c r="W831" s="3"/>
       <c r="X831" s="3"/>
     </row>
-    <row r="832" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="2"/>
       <c r="J832" s="2"/>
       <c r="W832" s="3"/>
       <c r="X832" s="3"/>
     </row>
-    <row r="833" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="2"/>
       <c r="J833" s="2"/>
       <c r="W833" s="3"/>
       <c r="X833" s="3"/>
     </row>
-    <row r="834" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="2"/>
       <c r="J834" s="2"/>
       <c r="W834" s="3"/>
       <c r="X834" s="3"/>
     </row>
-    <row r="835" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="2"/>
       <c r="J835" s="2"/>
       <c r="W835" s="3"/>
       <c r="X835" s="3"/>
     </row>
-    <row r="836" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="2"/>
       <c r="J836" s="2"/>
       <c r="W836" s="3"/>
       <c r="X836" s="3"/>
     </row>
-    <row r="837" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="2"/>
       <c r="J837" s="2"/>
       <c r="W837" s="3"/>
       <c r="X837" s="3"/>
     </row>
-    <row r="838" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="2"/>
       <c r="J838" s="2"/>
       <c r="W838" s="3"/>
       <c r="X838" s="3"/>
     </row>
-    <row r="839" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="2"/>
       <c r="J839" s="2"/>
       <c r="W839" s="3"/>
       <c r="X839" s="3"/>
     </row>
-    <row r="840" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="2"/>
       <c r="J840" s="2"/>
       <c r="W840" s="3"/>
       <c r="X840" s="3"/>
     </row>
-    <row r="841" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="2"/>
       <c r="J841" s="2"/>
       <c r="W841" s="3"/>
       <c r="X841" s="3"/>
     </row>
-    <row r="842" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="2"/>
       <c r="J842" s="2"/>
       <c r="W842" s="3"/>
       <c r="X842" s="3"/>
     </row>
-    <row r="843" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="2"/>
       <c r="J843" s="2"/>
       <c r="W843" s="3"/>
       <c r="X843" s="3"/>
     </row>
-    <row r="844" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="2"/>
       <c r="J844" s="2"/>
       <c r="W844" s="3"/>
       <c r="X844" s="3"/>
     </row>
-    <row r="845" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="2"/>
       <c r="J845" s="2"/>
       <c r="W845" s="3"/>
       <c r="X845" s="3"/>
     </row>
-    <row r="846" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="2"/>
       <c r="J846" s="2"/>
       <c r="W846" s="3"/>
       <c r="X846" s="3"/>
     </row>
-    <row r="847" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="2"/>
       <c r="J847" s="2"/>
       <c r="W847" s="3"/>
       <c r="X847" s="3"/>
     </row>
-    <row r="848" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="2"/>
       <c r="J848" s="2"/>
       <c r="W848" s="3"/>
       <c r="X848" s="3"/>
     </row>
-    <row r="849" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="2"/>
       <c r="J849" s="2"/>
       <c r="W849" s="3"/>
       <c r="X849" s="3"/>
     </row>
-    <row r="850" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="2"/>
       <c r="J850" s="2"/>
       <c r="W850" s="3"/>
       <c r="X850" s="3"/>
     </row>
-    <row r="851" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="2"/>
       <c r="J851" s="2"/>
       <c r="W851" s="3"/>
       <c r="X851" s="3"/>
     </row>
-    <row r="852" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="2"/>
       <c r="J852" s="2"/>
       <c r="W852" s="3"/>
       <c r="X852" s="3"/>
     </row>
-    <row r="853" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="2"/>
       <c r="J853" s="2"/>
       <c r="W853" s="3"/>
       <c r="X853" s="3"/>
     </row>
-    <row r="854" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="2"/>
       <c r="J854" s="2"/>
       <c r="W854" s="3"/>
       <c r="X854" s="3"/>
     </row>
-    <row r="855" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="2"/>
       <c r="J855" s="2"/>
       <c r="W855" s="3"/>
       <c r="X855" s="3"/>
     </row>
-    <row r="856" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="2"/>
       <c r="J856" s="2"/>
       <c r="W856" s="3"/>
       <c r="X856" s="3"/>
     </row>
-    <row r="857" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="2"/>
       <c r="J857" s="2"/>
       <c r="W857" s="3"/>
       <c r="X857" s="3"/>
     </row>
-    <row r="858" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="2"/>
       <c r="J858" s="2"/>
       <c r="W858" s="3"/>
       <c r="X858" s="3"/>
     </row>
-    <row r="859" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="2"/>
       <c r="J859" s="2"/>
       <c r="W859" s="3"/>
       <c r="X859" s="3"/>
     </row>
-    <row r="860" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="2"/>
       <c r="J860" s="2"/>
       <c r="W860" s="3"/>
       <c r="X860" s="3"/>
     </row>
-    <row r="861" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="2"/>
       <c r="J861" s="2"/>
       <c r="W861" s="3"/>
       <c r="X861" s="3"/>
     </row>
-    <row r="862" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="2"/>
       <c r="J862" s="2"/>
       <c r="W862" s="3"/>
       <c r="X862" s="3"/>
     </row>
-    <row r="863" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="2"/>
       <c r="J863" s="2"/>
       <c r="W863" s="3"/>
       <c r="X863" s="3"/>
     </row>
-    <row r="864" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="2"/>
       <c r="J864" s="2"/>
       <c r="W864" s="3"/>
       <c r="X864" s="3"/>
     </row>
-    <row r="865" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="2"/>
       <c r="J865" s="2"/>
       <c r="W865" s="3"/>
       <c r="X865" s="3"/>
     </row>
-    <row r="866" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="2"/>
       <c r="J866" s="2"/>
       <c r="W866" s="3"/>
       <c r="X866" s="3"/>
     </row>
-    <row r="867" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="2"/>
       <c r="J867" s="2"/>
       <c r="W867" s="3"/>
       <c r="X867" s="3"/>
     </row>
-    <row r="868" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="2"/>
       <c r="J868" s="2"/>
       <c r="W868" s="3"/>
       <c r="X868" s="3"/>
     </row>
-    <row r="869" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="2"/>
       <c r="J869" s="2"/>
       <c r="W869" s="3"/>
       <c r="X869" s="3"/>
     </row>
-    <row r="870" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="2"/>
       <c r="J870" s="2"/>
       <c r="W870" s="3"/>
       <c r="X870" s="3"/>
     </row>
-    <row r="871" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="2"/>
       <c r="J871" s="2"/>
       <c r="W871" s="3"/>
       <c r="X871" s="3"/>
     </row>
-    <row r="872" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="2"/>
       <c r="J872" s="2"/>
       <c r="W872" s="3"/>
       <c r="X872" s="3"/>
     </row>
-    <row r="873" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="2"/>
       <c r="J873" s="2"/>
       <c r="W873" s="3"/>
       <c r="X873" s="3"/>
     </row>
-    <row r="874" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="2"/>
       <c r="J874" s="2"/>
       <c r="W874" s="3"/>
       <c r="X874" s="3"/>
     </row>
-    <row r="875" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="2"/>
       <c r="J875" s="2"/>
       <c r="W875" s="3"/>
       <c r="X875" s="3"/>
     </row>
-    <row r="876" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="2"/>
       <c r="J876" s="2"/>
       <c r="W876" s="3"/>
       <c r="X876" s="3"/>
     </row>
-    <row r="877" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="2"/>
       <c r="J877" s="2"/>
       <c r="W877" s="3"/>
       <c r="X877" s="3"/>
     </row>
-    <row r="878" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="2"/>
       <c r="J878" s="2"/>
       <c r="W878" s="3"/>
       <c r="X878" s="3"/>
     </row>
-    <row r="879" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="2"/>
       <c r="J879" s="2"/>
       <c r="W879" s="3"/>
       <c r="X879" s="3"/>
     </row>
-    <row r="880" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="2"/>
       <c r="J880" s="2"/>
       <c r="W880" s="3"/>
       <c r="X880" s="3"/>
     </row>
-    <row r="881" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="2"/>
       <c r="J881" s="2"/>
       <c r="W881" s="3"/>
       <c r="X881" s="3"/>
     </row>
-    <row r="882" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="2"/>
       <c r="J882" s="2"/>
       <c r="W882" s="3"/>
       <c r="X882" s="3"/>
     </row>
-    <row r="883" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="2"/>
       <c r="J883" s="2"/>
       <c r="W883" s="3"/>
       <c r="X883" s="3"/>
     </row>
-    <row r="884" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="2"/>
       <c r="J884" s="2"/>
       <c r="W884" s="3"/>
       <c r="X884" s="3"/>
     </row>
-    <row r="885" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="2"/>
       <c r="J885" s="2"/>
       <c r="W885" s="3"/>
       <c r="X885" s="3"/>
     </row>
-    <row r="886" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="2"/>
       <c r="J886" s="2"/>
       <c r="W886" s="3"/>
       <c r="X886" s="3"/>
     </row>
-    <row r="887" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="2"/>
       <c r="J887" s="2"/>
       <c r="W887" s="3"/>
       <c r="X887" s="3"/>
     </row>
-    <row r="888" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="2"/>
       <c r="J888" s="2"/>
       <c r="W888" s="3"/>
       <c r="X888" s="3"/>
     </row>
-    <row r="889" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="2"/>
       <c r="J889" s="2"/>
       <c r="W889" s="3"/>
       <c r="X889" s="3"/>
     </row>
-    <row r="890" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="2"/>
       <c r="J890" s="2"/>
       <c r="W890" s="3"/>
       <c r="X890" s="3"/>
     </row>
-    <row r="891" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="2"/>
       <c r="J891" s="2"/>
       <c r="W891" s="3"/>
       <c r="X891" s="3"/>
     </row>
-    <row r="892" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="2"/>
       <c r="J892" s="2"/>
       <c r="W892" s="3"/>
       <c r="X892" s="3"/>
     </row>
-    <row r="893" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="2"/>
       <c r="J893" s="2"/>
       <c r="W893" s="3"/>
       <c r="X893" s="3"/>
     </row>
-    <row r="894" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="2"/>
       <c r="J894" s="2"/>
       <c r="W894" s="3"/>
       <c r="X894" s="3"/>
     </row>
-    <row r="895" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="2"/>
       <c r="J895" s="2"/>
       <c r="W895" s="3"/>
       <c r="X895" s="3"/>
     </row>
-    <row r="896" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="2"/>
       <c r="J896" s="2"/>
       <c r="W896" s="3"/>
       <c r="X896" s="3"/>
     </row>
-    <row r="897" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="2"/>
       <c r="J897" s="2"/>
       <c r="W897" s="3"/>
       <c r="X897" s="3"/>
     </row>
-    <row r="898" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="2"/>
       <c r="J898" s="2"/>
       <c r="W898" s="3"/>
       <c r="X898" s="3"/>
     </row>
-    <row r="899" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="2"/>
       <c r="J899" s="2"/>
       <c r="W899" s="3"/>
       <c r="X899" s="3"/>
     </row>
-    <row r="900" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="2"/>
       <c r="J900" s="2"/>
       <c r="W900" s="3"/>
       <c r="X900" s="3"/>
     </row>
-    <row r="901" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="2"/>
       <c r="J901" s="2"/>
       <c r="W901" s="3"/>
       <c r="X901" s="3"/>
     </row>
-    <row r="902" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="2"/>
       <c r="J902" s="2"/>
       <c r="W902" s="3"/>
       <c r="X902" s="3"/>
     </row>
-    <row r="903" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="2:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="2"/>
       <c r="J903" s="2"/>
       <c r="W903" s="3"/>
       <c r="X903" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{9D8E6963-6C5A-49D9-AA3E-C3E517A49750}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9414,16 +9419,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -9436,11 +9441,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -9453,11 +9458,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -9470,11 +9475,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -9487,11 +9492,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -9504,11 +9509,11 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -9521,11 +9526,11 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -9538,11 +9543,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -9555,11 +9560,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>124</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -9572,11 +9577,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -9589,11 +9594,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>141</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -9606,11 +9611,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>150</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -9623,11 +9628,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>158</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -9640,11 +9645,11 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>166</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -9657,11 +9662,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>173</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -9674,11 +9679,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -9691,11 +9696,11 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>187</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -9708,11 +9713,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>195</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -9725,11 +9730,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>203</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -9742,11 +9747,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>211</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -9759,11 +9764,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>218</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -9776,11 +9781,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>225</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -9793,11 +9798,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>234</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -9810,11 +9815,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>244</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -9827,28 +9832,28 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>250</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>258</v>
       </c>
       <c r="I26" s="1" t="s">
